--- a/lastfm.xlsx
+++ b/lastfm.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B704E3-18F2-4EF7-A5E8-CE2A902D3EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7702AF9D-FF75-49C8-B437-1FBAB21CF884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="scrobbles a day" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Freq</t>
   </si>
@@ -39,6 +40,21 @@
   </si>
   <si>
     <t>Album</t>
+  </si>
+  <si>
+    <t>downloaded on</t>
+  </si>
+  <si>
+    <t>15th march</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Scrobbles</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
@@ -74,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,13 +409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B75B6F-5132-4681-BECC-14E4737D8758}">
   <dimension ref="C3:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -412,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>52</v>
       </c>
@@ -423,7 +440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>51</v>
       </c>
@@ -434,7 +451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>50</v>
       </c>
@@ -445,7 +462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>49</v>
       </c>
@@ -456,7 +473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>48</v>
       </c>
@@ -467,7 +484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>47</v>
       </c>
@@ -478,7 +495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>46</v>
       </c>
@@ -489,7 +506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>45</v>
       </c>
@@ -500,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>44</v>
       </c>
@@ -511,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>43</v>
       </c>
@@ -522,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>42</v>
       </c>
@@ -533,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>41</v>
       </c>
@@ -544,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>40</v>
       </c>
@@ -555,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>39</v>
       </c>
@@ -566,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>38</v>
       </c>
@@ -577,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>37</v>
       </c>
@@ -588,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>36</v>
       </c>
@@ -599,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>35</v>
       </c>
@@ -610,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>34</v>
       </c>
@@ -618,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>33</v>
       </c>
@@ -626,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>32</v>
       </c>
@@ -634,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>31</v>
       </c>
@@ -642,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>30</v>
       </c>
@@ -650,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>29</v>
       </c>
@@ -658,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>28</v>
       </c>
@@ -666,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>27</v>
       </c>
@@ -674,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>26</v>
       </c>
@@ -682,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>25</v>
       </c>
@@ -690,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>24</v>
       </c>
@@ -698,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>23</v>
       </c>
@@ -706,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>22</v>
       </c>
@@ -714,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>21</v>
       </c>
@@ -722,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>20</v>
       </c>
@@ -730,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>19</v>
       </c>
@@ -738,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>18</v>
       </c>
@@ -746,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>17</v>
       </c>
@@ -754,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>16</v>
       </c>
@@ -762,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>15</v>
       </c>
@@ -770,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>14</v>
       </c>
@@ -778,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>13</v>
       </c>
@@ -786,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>12</v>
       </c>
@@ -794,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>11</v>
       </c>
@@ -802,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>10</v>
       </c>
@@ -810,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>9</v>
       </c>
@@ -818,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>8</v>
       </c>
@@ -826,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>7</v>
       </c>
@@ -835,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>6</v>
       </c>
@@ -843,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>5</v>
       </c>
@@ -851,7 +868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>4</v>
       </c>
@@ -859,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>3</v>
       </c>
@@ -868,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>2</v>
       </c>
@@ -877,7 +894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>1</v>
       </c>
@@ -886,10 +903,347 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D56">
         <f>SUM(D4:D55)</f>
         <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
+  <dimension ref="B1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>43539</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>43540</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>43541</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43543</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43544</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43545</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43546</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>43547</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43548</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>43550</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>43551</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>43552</v>
+      </c>
+      <c r="C15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>43553</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>43554</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>43555</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>43558</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>43559</v>
+      </c>
+      <c r="C22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>43560</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>43561</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>43562</v>
+      </c>
+      <c r="C25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C26">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C27">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>43565</v>
+      </c>
+      <c r="C28">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C31">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>43579</v>
       </c>
     </row>
   </sheetData>

--- a/lastfm.xlsx
+++ b/lastfm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A42A8-16EB-4CAC-83A8-05A5D0A61E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C54C93-A0E5-431F-922D-B8542277540A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
   <sheets>
     <sheet name="scrobbles a day" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Freq</t>
   </si>
@@ -103,13 +103,25 @@
   <si>
     <t>A Day</t>
   </si>
+  <si>
+    <t>Chi Squared Test</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -226,33 +238,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -969,7 +985,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA3B-4D9E-B466-2287D211D396}"/>
+              <c16:uniqueId val="{00000000-4BD6-4D18-8DCC-9D504872734E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2269,23 +2285,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5492F90F-D9EB-4266-9334-A75E88C3195A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01B5828-E0BF-4E72-A177-8866C6D68098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,10 +2696,10 @@
         <f>AVERAGE(C$2:C4)</f>
         <v>28.333333333333332</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2699,10 +2715,10 @@
         <f>AVERAGE(C$2:C5)</f>
         <v>34.25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f ca="1">TODAY()</f>
         <v>43569</v>
       </c>
@@ -2721,10 +2737,10 @@
         <f>AVERAGE(C$2:C6)</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <f ca="1">G5-B2</f>
         <v>30</v>
       </c>
@@ -2743,8 +2759,8 @@
         <f>AVERAGE(C$2:C7)</f>
         <v>41.166666666666664</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2760,10 +2776,10 @@
         <f>AVERAGE(C$2:C8)</f>
         <v>35.285714285714285</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f>_xlfn.STDEV.P(C:C)</f>
         <v>32.441211787203976</v>
       </c>
@@ -2782,10 +2798,10 @@
         <f>AVERAGE(C$2:C9)</f>
         <v>41.75</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f>AVERAGE(C:C)</f>
         <v>54.966666666666669</v>
       </c>
@@ -3224,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C4B7F4-371F-4807-A47D-35B0DF5AEC8E}">
   <dimension ref="C3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3310,15 +3326,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA36D5C-F037-4174-89E6-4D05A4E2D961}">
-  <dimension ref="C4:G15"/>
+  <dimension ref="C4:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -3334,8 +3354,11 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -3347,15 +3370,19 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <f>D5/E5</f>
+        <f t="shared" ref="F5:F11" si="0">D5/E5</f>
         <v>67.25</v>
       </c>
       <c r="G5" s="3">
-        <f>F5-F$13</f>
+        <f t="shared" ref="G5:G11" si="1">F5-F$13</f>
         <v>12.283333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="14">
+        <f>F5/$F$13</f>
+        <v>1.2234687689508792</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -3367,15 +3394,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <f>D6/E6</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="G6" s="3">
-        <f>F6-F$13</f>
+        <f t="shared" si="1"/>
         <v>26.283333333333331</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="14">
+        <f t="shared" ref="H6:H11" si="2">F6/$F$13</f>
+        <v>1.4781685870224377</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -3387,15 +3418,19 @@
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <f>D7/E7</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="G7" s="3">
-        <f>F7-F$13</f>
+        <f t="shared" si="1"/>
         <v>1.2833333333333314</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0233474833232261</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -3407,15 +3442,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="3">
-        <f>D8/E8</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G8" s="3">
-        <f>F8-F$13</f>
+        <f t="shared" si="1"/>
         <v>-15.966666666666669</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.70952092177077009</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -3427,15 +3466,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <f>D9/E9</f>
+        <f t="shared" si="0"/>
         <v>43.2</v>
       </c>
       <c r="G9" s="3">
-        <f>F9-F$13</f>
+        <f t="shared" si="1"/>
         <v>-11.766666666666666</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.7859308671922377</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -3447,15 +3490,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <f>D10/E10</f>
+        <f t="shared" si="0"/>
         <v>54.8</v>
       </c>
       <c r="G10" s="3">
-        <f>F10-F$13</f>
+        <f t="shared" si="1"/>
         <v>-0.1666666666666714</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.99696785930867182</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -3467,15 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F11" s="3">
-        <f>D11/E11</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G11" s="3">
-        <f>F11-F$13</f>
+        <f t="shared" si="1"/>
         <v>-8.9666666666666686</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.83687083080654945</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -3492,7 +3543,7 @@
         <v>54.966666666666669</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -3507,6 +3558,218 @@
       <c r="G15">
         <f>_xlfn.STDEV.P(G5:G11)</f>
         <v>13.710721262975936</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <f>D5</f>
+        <v>269</v>
+      </c>
+      <c r="E23" s="3">
+        <f>$D$13/$E$13*E5</f>
+        <v>219.86666666666667</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
+        <f>F5</f>
+        <v>67.25</v>
+      </c>
+      <c r="I23" s="3">
+        <f>E23/7</f>
+        <v>31.409523809523812</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f>D6</f>
+        <v>325</v>
+      </c>
+      <c r="E24" s="3">
+        <f>$D$13/$E$13*E6</f>
+        <v>219.86666666666667</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <f>F6</f>
+        <v>81.25</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I29" si="3">E24/7</f>
+        <v>31.409523809523812</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <f>D7</f>
+        <v>225</v>
+      </c>
+      <c r="E25" s="3">
+        <f>$D$13/$E$13*E7</f>
+        <v>219.86666666666667</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
+        <f>F7</f>
+        <v>56.25</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
+        <v>31.409523809523812</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f>D8</f>
+        <v>156</v>
+      </c>
+      <c r="E26" s="3">
+        <f>$D$13/$E$13*E8</f>
+        <v>219.86666666666667</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <f>F8</f>
+        <v>39</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>31.409523809523812</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f>D9</f>
+        <v>216</v>
+      </c>
+      <c r="E27" s="3">
+        <f>$D$13/$E$13*E9</f>
+        <v>274.83333333333337</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <f>F9</f>
+        <v>43.2</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>39.261904761904766</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f>D10</f>
+        <v>274</v>
+      </c>
+      <c r="E28" s="3">
+        <f>$D$13/$E$13*E10</f>
+        <v>274.83333333333337</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3">
+        <f>F10</f>
+        <v>54.8</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>39.261904761904766</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f>D11</f>
+        <v>184</v>
+      </c>
+      <c r="E29" s="3">
+        <f>$D$13/$E$13*E11</f>
+        <v>219.86666666666667</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3">
+        <f>F11</f>
+        <v>46</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>31.409523809523812</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="15">
+        <f>_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
+        <v>5.4871009907397241E-19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="15">
+        <f>_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
+        <v>7.5253700900508563E-31</v>
       </c>
     </row>
   </sheetData>

--- a/lastfm.xlsx
+++ b/lastfm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD1707-53F6-4F19-8D74-0A95110B9D00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C0D6C-D2A9-45A4-9A3B-DE669CB977D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
   <sheets>
     <sheet name="scrobbles a day" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>Freq</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>120-139</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Remainder</t>
   </si>
 </sst>
 </file>
@@ -376,15 +382,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4790,25 +4796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4862,14 +4868,14 @@
         <f>SUM($C$2:C3)</f>
         <v>46</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4894,12 +4900,12 @@
         <f>SUM(Calc!K2:K406)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4993,7 +4999,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>32.441211787203976</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>54.966666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -5113,7 +5119,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5131,7 +5137,7 @@
         <f>SUM($C$2:C12)</f>
         <v>496</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="24">
@@ -5139,7 +5145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5196,7 +5202,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -5215,7 +5221,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5310,7 +5316,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -5424,7 +5430,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -5564,7 +5570,7 @@
         <v>43576</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -5588,112 +5594,112 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -5718,13 +5724,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5735,7 +5741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>35.285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>58.142857142857146</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>49.714285714285715</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>67.142857142857139</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>5</v>
       </c>
@@ -5800,20 +5806,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA36D5C-F037-4174-89E6-4D05A4E2D961}">
-  <dimension ref="C4:I31"/>
+  <dimension ref="C1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f ca="1">'scrobbles a day'!K6</f>
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <f ca="1">ROUNDDOWN(D2/7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f ca="1">MOD(D2,7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
@@ -5833,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5842,22 +5873,23 @@
         <v>269</v>
       </c>
       <c r="E5" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;3,1,0)</f>
         <v>4</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F11" si="0">D5/E5</f>
+        <f t="shared" ref="F5:F11" ca="1" si="0">D5/E5</f>
         <v>67.25</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G5:G11" si="1">F5-F$13</f>
+        <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
         <v>12.283333333333331</v>
       </c>
       <c r="H5" s="16">
-        <f>F5/$F$13</f>
+        <f ca="1">F5/$F$13</f>
         <v>1.2234687689508792</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
@@ -5866,22 +5898,23 @@
         <v>325</v>
       </c>
       <c r="E6" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
         <v>4</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>81.25</v>
       </c>
       <c r="G6" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>26.283333333333331</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" ref="H6:H11" si="2">F6/$F$13</f>
+        <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
         <v>1.4781685870224377</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
@@ -5890,22 +5923,23 @@
         <v>225</v>
       </c>
       <c r="E7" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
         <v>4</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>56.25</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2833333333333314</v>
       </c>
       <c r="H7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.0233474833232261</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
@@ -5914,22 +5948,23 @@
         <v>156</v>
       </c>
       <c r="E8" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
         <v>4</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-15.966666666666669</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.70952092177077009</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
@@ -5938,22 +5973,23 @@
         <v>216</v>
       </c>
       <c r="E9" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
         <v>5</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>43.2</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-11.766666666666666</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.7859308671922377</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
@@ -5962,22 +5998,23 @@
         <v>274</v>
       </c>
       <c r="E10" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
         <v>5</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>54.8</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-0.1666666666666714</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.99696785930867182</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
@@ -5986,22 +6023,23 @@
         <v>184</v>
       </c>
       <c r="E11" s="14">
+        <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
         <v>4</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-8.9666666666666686</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.83687083080654945</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -6009,7 +6047,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
@@ -6018,17 +6056,17 @@
         <v>1649</v>
       </c>
       <c r="E13" s="14">
-        <f>SUM(E5:E11)</f>
+        <f ca="1">SUM(E5:E11)</f>
         <v>30</v>
       </c>
       <c r="F13" s="15">
-        <f>D13/E13</f>
+        <f ca="1">D13/E13</f>
         <v>54.966666666666669</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -6036,7 +6074,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
@@ -6046,16 +6084,16 @@
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19">
-        <f>_xlfn.STDEV.P(F5:F11)</f>
+        <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
         <v>13.71072126297595</v>
       </c>
       <c r="G15" s="19">
-        <f>_xlfn.STDEV.P(G5:G11)</f>
+        <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
         <v>13.710721262975936</v>
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
@@ -6067,7 +6105,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="17"/>
@@ -6075,7 +6113,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
@@ -6095,7 +6133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
@@ -6104,22 +6142,22 @@
         <v>269</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" ref="E23:E29" si="4">$D$13/$E$13*E5</f>
+        <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
         <v>219.86666666666667</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" ref="H23:H29" si="5">F5</f>
+        <f t="shared" ref="H23:H29" ca="1" si="5">F5</f>
         <v>67.25</v>
       </c>
       <c r="I23" s="21">
-        <f>E23/7</f>
+        <f ca="1">E23/7</f>
         <v>31.409523809523812</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
@@ -6128,22 +6166,22 @@
         <v>325</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>219.86666666666667</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>81.25</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" ref="I24:I29" si="6">E24/7</f>
+        <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
         <v>31.409523809523812</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
@@ -6152,22 +6190,22 @@
         <v>225</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>219.86666666666667</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>56.25</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>31.409523809523812</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
@@ -6176,22 +6214,22 @@
         <v>156</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>219.86666666666667</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>39</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>31.409523809523812</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
         <v>3</v>
       </c>
@@ -6200,22 +6238,22 @@
         <v>216</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>274.83333333333337</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>43.2</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>39.261904761904766</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
         <v>4</v>
       </c>
@@ -6224,22 +6262,22 @@
         <v>274</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>274.83333333333337</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>54.8</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>39.261904761904766</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
@@ -6248,22 +6286,22 @@
         <v>184</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>219.86666666666667</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>46</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>31.409523809523812</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="17"/>
@@ -6271,12 +6309,12 @@
       <c r="H30" s="14"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="22">
-        <f>_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
+        <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
         <v>5.4871009907397241E-19</v>
       </c>
       <c r="E31" s="20"/>
@@ -6284,7 +6322,7 @@
         <v>25</v>
       </c>
       <c r="H31" s="22">
-        <f>_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
+        <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
         <v>7.5253700900508563E-31</v>
       </c>
       <c r="I31" s="20"/>
@@ -6303,18 +6341,18 @@
       <selection activeCell="V387" sqref="V387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -6361,7 +6399,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2">
         <f>IF('scrobbles a day'!$A2=C$1,'scrobbles a day'!$C2,0)</f>
         <v>0</v>
@@ -6419,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3">
         <f>IF('scrobbles a day'!$A3=C$1,'scrobbles a day'!$C3,0)</f>
         <v>0</v>
@@ -6477,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>IF('scrobbles a day'!$A4=C$1,'scrobbles a day'!$C4,0)</f>
         <v>0</v>
@@ -6535,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>IF('scrobbles a day'!$A5=C$1,'scrobbles a day'!$C5,0)</f>
         <v>52</v>
@@ -6593,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>IF('scrobbles a day'!$A6=C$1,'scrobbles a day'!$C6,0)</f>
         <v>0</v>
@@ -6651,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>IF('scrobbles a day'!$A7=C$1,'scrobbles a day'!$C7,0)</f>
         <v>0</v>
@@ -6709,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>IF('scrobbles a day'!$A8=C$1,'scrobbles a day'!$C8,0)</f>
         <v>0</v>
@@ -6767,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>IF('scrobbles a day'!$A9=C$1,'scrobbles a day'!$C9,0)</f>
         <v>0</v>
@@ -6825,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>IF('scrobbles a day'!$A10=C$1,'scrobbles a day'!$C10,0)</f>
         <v>0</v>
@@ -6883,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>IF('scrobbles a day'!$A11=C$1,'scrobbles a day'!$C11,0)</f>
         <v>0</v>
@@ -6941,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>IF('scrobbles a day'!$A12=C$1,'scrobbles a day'!$C12,0)</f>
         <v>92</v>
@@ -6999,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>IF('scrobbles a day'!$A13=C$1,'scrobbles a day'!$C13,0)</f>
         <v>0</v>
@@ -7057,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>IF('scrobbles a day'!$A14=C$1,'scrobbles a day'!$C14,0)</f>
         <v>0</v>
@@ -7115,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>IF('scrobbles a day'!$A15=C$1,'scrobbles a day'!$C15,0)</f>
         <v>0</v>
@@ -7173,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>IF('scrobbles a day'!$A16=C$1,'scrobbles a day'!$C16,0)</f>
         <v>0</v>
@@ -7231,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>IF('scrobbles a day'!$A17=C$1,'scrobbles a day'!$C17,0)</f>
         <v>0</v>
@@ -7289,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>IF('scrobbles a day'!$A18=C$1,'scrobbles a day'!$C18,0)</f>
         <v>0</v>
@@ -7347,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>IF('scrobbles a day'!$A19=C$1,'scrobbles a day'!$C19,0)</f>
         <v>32</v>
@@ -7405,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>IF('scrobbles a day'!$A20=C$1,'scrobbles a day'!$C20,0)</f>
         <v>0</v>
@@ -7463,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>IF('scrobbles a day'!$A21=C$1,'scrobbles a day'!$C21,0)</f>
         <v>0</v>
@@ -7521,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>IF('scrobbles a day'!$A22=C$1,'scrobbles a day'!$C22,0)</f>
         <v>0</v>
@@ -7579,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>IF('scrobbles a day'!$A23=C$1,'scrobbles a day'!$C23,0)</f>
         <v>0</v>
@@ -7637,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>IF('scrobbles a day'!$A24=C$1,'scrobbles a day'!$C24,0)</f>
         <v>0</v>
@@ -7695,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>IF('scrobbles a day'!$A25=C$1,'scrobbles a day'!$C25,0)</f>
         <v>0</v>
@@ -7753,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>IF('scrobbles a day'!$A26=C$1,'scrobbles a day'!$C26,0)</f>
         <v>93</v>
@@ -7811,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>IF('scrobbles a day'!$A27=C$1,'scrobbles a day'!$C27,0)</f>
         <v>0</v>
@@ -7869,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>IF('scrobbles a day'!$A28=C$1,'scrobbles a day'!$C28,0)</f>
         <v>0</v>
@@ -7927,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>IF('scrobbles a day'!$A29=C$1,'scrobbles a day'!$C29,0)</f>
         <v>0</v>
@@ -7985,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>IF('scrobbles a day'!$A30=C$1,'scrobbles a day'!$C30,0)</f>
         <v>0</v>
@@ -8043,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>IF('scrobbles a day'!$A31=C$1,'scrobbles a day'!$C31,0)</f>
         <v>0</v>
@@ -8101,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>IF('scrobbles a day'!$A32=C$1,'scrobbles a day'!$C32,0)</f>
         <v>0</v>
@@ -8159,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>IF('scrobbles a day'!$A33=C$1,'scrobbles a day'!$C33,0)</f>
         <v>0</v>
@@ -8217,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>IF('scrobbles a day'!$A34=C$1,'scrobbles a day'!$C34,0)</f>
         <v>0</v>
@@ -8275,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>IF('scrobbles a day'!$A35=C$1,'scrobbles a day'!$C35,0)</f>
         <v>0</v>
@@ -8333,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C36">
         <f>IF('scrobbles a day'!$A36=C$1,'scrobbles a day'!$C36,0)</f>
         <v>0</v>
@@ -8391,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>IF('scrobbles a day'!$A37=C$1,'scrobbles a day'!$C37,0)</f>
         <v>0</v>
@@ -8449,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>IF('scrobbles a day'!$A38=C$1,'scrobbles a day'!$C38,0)</f>
         <v>0</v>
@@ -8507,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>IF('scrobbles a day'!$A39=C$1,'scrobbles a day'!$C39,0)</f>
         <v>0</v>
@@ -8565,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>IF('scrobbles a day'!$A40=C$1,'scrobbles a day'!$C40,0)</f>
         <v>0</v>
@@ -8623,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>IF('scrobbles a day'!$A41=C$1,'scrobbles a day'!$C41,0)</f>
         <v>0</v>
@@ -8681,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>IF('scrobbles a day'!$A42=C$1,'scrobbles a day'!$C42,0)</f>
         <v>0</v>
@@ -8739,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>IF('scrobbles a day'!$A43=C$1,'scrobbles a day'!$C43,0)</f>
         <v>0</v>
@@ -8797,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>IF('scrobbles a day'!$A44=C$1,'scrobbles a day'!$C44,0)</f>
         <v>0</v>
@@ -8855,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>IF('scrobbles a day'!$A45=C$1,'scrobbles a day'!$C45,0)</f>
         <v>0</v>
@@ -8913,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>IF('scrobbles a day'!$A46=C$1,'scrobbles a day'!$C46,0)</f>
         <v>0</v>
@@ -8971,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>IF('scrobbles a day'!$A47=C$1,'scrobbles a day'!$C47,0)</f>
         <v>0</v>
@@ -9029,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>IF('scrobbles a day'!$A48=C$1,'scrobbles a day'!$C48,0)</f>
         <v>0</v>
@@ -9087,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>IF('scrobbles a day'!$A49=C$1,'scrobbles a day'!$C49,0)</f>
         <v>0</v>
@@ -9145,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>IF('scrobbles a day'!$A50=C$1,'scrobbles a day'!$C50,0)</f>
         <v>0</v>
@@ -9203,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>IF('scrobbles a day'!$A51=C$1,'scrobbles a day'!$C51,0)</f>
         <v>0</v>
@@ -9261,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>IF('scrobbles a day'!$A52=C$1,'scrobbles a day'!$C52,0)</f>
         <v>0</v>
@@ -9319,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>IF('scrobbles a day'!$A53=C$1,'scrobbles a day'!$C53,0)</f>
         <v>0</v>
@@ -9377,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>IF('scrobbles a day'!$A54=C$1,'scrobbles a day'!$C54,0)</f>
         <v>0</v>
@@ -9435,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>IF('scrobbles a day'!$A55=C$1,'scrobbles a day'!$C55,0)</f>
         <v>0</v>
@@ -9493,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C56">
         <f>IF('scrobbles a day'!$A56=C$1,'scrobbles a day'!$C56,0)</f>
         <v>0</v>
@@ -9551,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>IF('scrobbles a day'!$A57=C$1,'scrobbles a day'!$C57,0)</f>
         <v>0</v>
@@ -9609,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C58">
         <f>IF('scrobbles a day'!$A58=C$1,'scrobbles a day'!$C58,0)</f>
         <v>0</v>
@@ -9667,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>IF('scrobbles a day'!$A59=C$1,'scrobbles a day'!$C59,0)</f>
         <v>0</v>
@@ -9725,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C60">
         <f>IF('scrobbles a day'!$A60=C$1,'scrobbles a day'!$C60,0)</f>
         <v>0</v>
@@ -9783,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>IF('scrobbles a day'!$A61=C$1,'scrobbles a day'!$C61,0)</f>
         <v>0</v>
@@ -9841,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C62">
         <f>IF('scrobbles a day'!$A62=C$1,'scrobbles a day'!$C62,0)</f>
         <v>0</v>
@@ -9899,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C63">
         <f>IF('scrobbles a day'!$A63=C$1,'scrobbles a day'!$C63,0)</f>
         <v>0</v>
@@ -9957,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C64">
         <f>IF('scrobbles a day'!$A64=C$1,'scrobbles a day'!$C64,0)</f>
         <v>0</v>
@@ -10015,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C65">
         <f>IF('scrobbles a day'!$A65=C$1,'scrobbles a day'!$C65,0)</f>
         <v>0</v>
@@ -10073,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C66">
         <f>IF('scrobbles a day'!$A66=C$1,'scrobbles a day'!$C66,0)</f>
         <v>0</v>
@@ -10131,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C67">
         <f>IF('scrobbles a day'!$A67=C$1,'scrobbles a day'!$C67,0)</f>
         <v>0</v>
@@ -10189,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C68">
         <f>IF('scrobbles a day'!$A68=C$1,'scrobbles a day'!$C68,0)</f>
         <v>0</v>
@@ -10247,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C69">
         <f>IF('scrobbles a day'!$A69=C$1,'scrobbles a day'!$C69,0)</f>
         <v>0</v>
@@ -10305,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C70">
         <f>IF('scrobbles a day'!$A70=C$1,'scrobbles a day'!$C70,0)</f>
         <v>0</v>
@@ -10363,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C71">
         <f>IF('scrobbles a day'!$A71=C$1,'scrobbles a day'!$C71,0)</f>
         <v>0</v>
@@ -10421,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C72">
         <f>IF('scrobbles a day'!$A72=C$1,'scrobbles a day'!$C72,0)</f>
         <v>0</v>
@@ -10479,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C73">
         <f>IF('scrobbles a day'!$A73=C$1,'scrobbles a day'!$C73,0)</f>
         <v>0</v>
@@ -10537,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C74">
         <f>IF('scrobbles a day'!$A74=C$1,'scrobbles a day'!$C74,0)</f>
         <v>0</v>
@@ -10595,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>IF('scrobbles a day'!$A75=C$1,'scrobbles a day'!$C75,0)</f>
         <v>0</v>
@@ -10653,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C76">
         <f>IF('scrobbles a day'!$A76=C$1,'scrobbles a day'!$C76,0)</f>
         <v>0</v>
@@ -10711,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>IF('scrobbles a day'!$A77=C$1,'scrobbles a day'!$C77,0)</f>
         <v>0</v>
@@ -10769,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C78">
         <f>IF('scrobbles a day'!$A78=C$1,'scrobbles a day'!$C78,0)</f>
         <v>0</v>
@@ -10827,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>IF('scrobbles a day'!$A79=C$1,'scrobbles a day'!$C79,0)</f>
         <v>0</v>
@@ -10885,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C80">
         <f>IF('scrobbles a day'!$A80=C$1,'scrobbles a day'!$C80,0)</f>
         <v>0</v>
@@ -10943,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C81">
         <f>IF('scrobbles a day'!$A81=C$1,'scrobbles a day'!$C81,0)</f>
         <v>0</v>
@@ -11001,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>IF('scrobbles a day'!$A82=C$1,'scrobbles a day'!$C82,0)</f>
         <v>0</v>
@@ -11059,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>IF('scrobbles a day'!$A83=C$1,'scrobbles a day'!$C83,0)</f>
         <v>0</v>
@@ -11117,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>IF('scrobbles a day'!$A84=C$1,'scrobbles a day'!$C84,0)</f>
         <v>0</v>
@@ -11175,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>IF('scrobbles a day'!$A85=C$1,'scrobbles a day'!$C85,0)</f>
         <v>0</v>
@@ -11233,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>IF('scrobbles a day'!$A86=C$1,'scrobbles a day'!$C86,0)</f>
         <v>0</v>
@@ -11291,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>IF('scrobbles a day'!$A87=C$1,'scrobbles a day'!$C87,0)</f>
         <v>0</v>
@@ -11349,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>IF('scrobbles a day'!$A88=C$1,'scrobbles a day'!$C88,0)</f>
         <v>0</v>
@@ -11407,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>IF('scrobbles a day'!$A89=C$1,'scrobbles a day'!$C89,0)</f>
         <v>0</v>
@@ -11465,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>IF('scrobbles a day'!$A90=C$1,'scrobbles a day'!$C90,0)</f>
         <v>0</v>
@@ -11523,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>IF('scrobbles a day'!$A91=C$1,'scrobbles a day'!$C91,0)</f>
         <v>0</v>
@@ -11581,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>IF('scrobbles a day'!$A92=C$1,'scrobbles a day'!$C92,0)</f>
         <v>0</v>
@@ -11639,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>IF('scrobbles a day'!$A93=C$1,'scrobbles a day'!$C93,0)</f>
         <v>0</v>
@@ -11697,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>IF('scrobbles a day'!$A94=C$1,'scrobbles a day'!$C94,0)</f>
         <v>0</v>
@@ -11755,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>IF('scrobbles a day'!$A95=C$1,'scrobbles a day'!$C95,0)</f>
         <v>0</v>
@@ -11813,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C96">
         <f>IF('scrobbles a day'!$A96=C$1,'scrobbles a day'!$C96,0)</f>
         <v>0</v>
@@ -11871,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C97">
         <f>IF('scrobbles a day'!$A97=C$1,'scrobbles a day'!$C97,0)</f>
         <v>0</v>
@@ -11929,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C98">
         <f>IF('scrobbles a day'!$A98=C$1,'scrobbles a day'!$C98,0)</f>
         <v>0</v>
@@ -11987,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>IF('scrobbles a day'!$A99=C$1,'scrobbles a day'!$C99,0)</f>
         <v>0</v>
@@ -12045,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C100">
         <f>IF('scrobbles a day'!$A100=C$1,'scrobbles a day'!$C100,0)</f>
         <v>0</v>
@@ -12103,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C101">
         <f>IF('scrobbles a day'!$A101=C$1,'scrobbles a day'!$C101,0)</f>
         <v>0</v>
@@ -12161,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>IF('scrobbles a day'!$A102=C$1,'scrobbles a day'!$C102,0)</f>
         <v>0</v>
@@ -12219,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>IF('scrobbles a day'!$A103=C$1,'scrobbles a day'!$C103,0)</f>
         <v>0</v>
@@ -12277,7 +12315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C104">
         <f>IF('scrobbles a day'!$A104=C$1,'scrobbles a day'!$C104,0)</f>
         <v>0</v>
@@ -12335,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C105">
         <f>IF('scrobbles a day'!$A105=C$1,'scrobbles a day'!$C105,0)</f>
         <v>0</v>
@@ -12393,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C106">
         <f>IF('scrobbles a day'!$A106=C$1,'scrobbles a day'!$C106,0)</f>
         <v>0</v>
@@ -12451,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C107">
         <f>IF('scrobbles a day'!$A107=C$1,'scrobbles a day'!$C107,0)</f>
         <v>0</v>
@@ -12509,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C108">
         <f>IF('scrobbles a day'!$A108=C$1,'scrobbles a day'!$C108,0)</f>
         <v>0</v>
@@ -12567,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C109">
         <f>IF('scrobbles a day'!$A109=C$1,'scrobbles a day'!$C109,0)</f>
         <v>0</v>
@@ -12625,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C110">
         <f>IF('scrobbles a day'!$A110=C$1,'scrobbles a day'!$C110,0)</f>
         <v>0</v>
@@ -12683,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C111">
         <f>IF('scrobbles a day'!$A111=C$1,'scrobbles a day'!$C111,0)</f>
         <v>0</v>
@@ -12741,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C112">
         <f>IF('scrobbles a day'!$A112=C$1,'scrobbles a day'!$C112,0)</f>
         <v>0</v>
@@ -12799,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C113">
         <f>IF('scrobbles a day'!$A113=C$1,'scrobbles a day'!$C113,0)</f>
         <v>0</v>
@@ -12857,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C114">
         <f>IF('scrobbles a day'!$A114=C$1,'scrobbles a day'!$C114,0)</f>
         <v>0</v>
@@ -12915,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C115">
         <f>IF('scrobbles a day'!$A115=C$1,'scrobbles a day'!$C115,0)</f>
         <v>0</v>
@@ -12973,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C116">
         <f>IF('scrobbles a day'!$A116=C$1,'scrobbles a day'!$C116,0)</f>
         <v>0</v>
@@ -13031,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C117">
         <f>IF('scrobbles a day'!$A117=C$1,'scrobbles a day'!$C117,0)</f>
         <v>0</v>
@@ -13089,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C118">
         <f>IF('scrobbles a day'!$A118=C$1,'scrobbles a day'!$C118,0)</f>
         <v>0</v>
@@ -13147,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C119">
         <f>IF('scrobbles a day'!$A119=C$1,'scrobbles a day'!$C119,0)</f>
         <v>0</v>
@@ -13205,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C120">
         <f>IF('scrobbles a day'!$A120=C$1,'scrobbles a day'!$C120,0)</f>
         <v>0</v>
@@ -13263,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C121">
         <f>IF('scrobbles a day'!$A121=C$1,'scrobbles a day'!$C121,0)</f>
         <v>0</v>
@@ -13321,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C122">
         <f>IF('scrobbles a day'!$A122=C$1,'scrobbles a day'!$C122,0)</f>
         <v>0</v>
@@ -13379,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C123">
         <f>IF('scrobbles a day'!$A123=C$1,'scrobbles a day'!$C123,0)</f>
         <v>0</v>
@@ -13437,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C124">
         <f>IF('scrobbles a day'!$A124=C$1,'scrobbles a day'!$C124,0)</f>
         <v>0</v>
@@ -13495,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C125">
         <f>IF('scrobbles a day'!$A125=C$1,'scrobbles a day'!$C125,0)</f>
         <v>0</v>
@@ -13553,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C126">
         <f>IF('scrobbles a day'!$A126=C$1,'scrobbles a day'!$C126,0)</f>
         <v>0</v>
@@ -13611,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C127">
         <f>IF('scrobbles a day'!$A127=C$1,'scrobbles a day'!$C127,0)</f>
         <v>0</v>
@@ -13669,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C128">
         <f>IF('scrobbles a day'!$A128=C$1,'scrobbles a day'!$C128,0)</f>
         <v>0</v>
@@ -13727,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C129">
         <f>IF('scrobbles a day'!$A129=C$1,'scrobbles a day'!$C129,0)</f>
         <v>0</v>
@@ -13785,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C130">
         <f>IF('scrobbles a day'!$A130=C$1,'scrobbles a day'!$C130,0)</f>
         <v>0</v>
@@ -13843,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C131">
         <f>IF('scrobbles a day'!$A131=C$1,'scrobbles a day'!$C131,0)</f>
         <v>0</v>
@@ -13901,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C132">
         <f>IF('scrobbles a day'!$A132=C$1,'scrobbles a day'!$C132,0)</f>
         <v>0</v>
@@ -13959,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C133">
         <f>IF('scrobbles a day'!$A133=C$1,'scrobbles a day'!$C133,0)</f>
         <v>0</v>
@@ -14017,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C134">
         <f>IF('scrobbles a day'!$A134=C$1,'scrobbles a day'!$C134,0)</f>
         <v>0</v>
@@ -14075,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C135">
         <f>IF('scrobbles a day'!$A135=C$1,'scrobbles a day'!$C135,0)</f>
         <v>0</v>
@@ -14133,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C136">
         <f>IF('scrobbles a day'!$A136=C$1,'scrobbles a day'!$C136,0)</f>
         <v>0</v>
@@ -14191,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C137">
         <f>IF('scrobbles a day'!$A137=C$1,'scrobbles a day'!$C137,0)</f>
         <v>0</v>
@@ -14249,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C138">
         <f>IF('scrobbles a day'!$A138=C$1,'scrobbles a day'!$C138,0)</f>
         <v>0</v>
@@ -14307,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C139">
         <f>IF('scrobbles a day'!$A139=C$1,'scrobbles a day'!$C139,0)</f>
         <v>0</v>
@@ -14365,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C140">
         <f>IF('scrobbles a day'!$A140=C$1,'scrobbles a day'!$C140,0)</f>
         <v>0</v>
@@ -14423,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C141">
         <f>IF('scrobbles a day'!$A141=C$1,'scrobbles a day'!$C141,0)</f>
         <v>0</v>
@@ -14481,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C142">
         <f>IF('scrobbles a day'!$A142=C$1,'scrobbles a day'!$C142,0)</f>
         <v>0</v>
@@ -14539,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C143">
         <f>IF('scrobbles a day'!$A143=C$1,'scrobbles a day'!$C143,0)</f>
         <v>0</v>
@@ -14597,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C144">
         <f>IF('scrobbles a day'!$A144=C$1,'scrobbles a day'!$C144,0)</f>
         <v>0</v>
@@ -14655,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C145">
         <f>IF('scrobbles a day'!$A145=C$1,'scrobbles a day'!$C145,0)</f>
         <v>0</v>
@@ -14713,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C146">
         <f>IF('scrobbles a day'!$A146=C$1,'scrobbles a day'!$C146,0)</f>
         <v>0</v>
@@ -14771,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C147">
         <f>IF('scrobbles a day'!$A147=C$1,'scrobbles a day'!$C147,0)</f>
         <v>0</v>
@@ -14829,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C148">
         <f>IF('scrobbles a day'!$A148=C$1,'scrobbles a day'!$C148,0)</f>
         <v>0</v>
@@ -14887,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C149">
         <f>IF('scrobbles a day'!$A149=C$1,'scrobbles a day'!$C149,0)</f>
         <v>0</v>
@@ -14945,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C150">
         <f>IF('scrobbles a day'!$A150=C$1,'scrobbles a day'!$C150,0)</f>
         <v>0</v>
@@ -15003,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C151">
         <f>IF('scrobbles a day'!$A151=C$1,'scrobbles a day'!$C151,0)</f>
         <v>0</v>
@@ -15061,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C152">
         <f>IF('scrobbles a day'!$A152=C$1,'scrobbles a day'!$C152,0)</f>
         <v>0</v>
@@ -15119,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C153">
         <f>IF('scrobbles a day'!$A153=C$1,'scrobbles a day'!$C153,0)</f>
         <v>0</v>
@@ -15177,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C154">
         <f>IF('scrobbles a day'!$A154=C$1,'scrobbles a day'!$C154,0)</f>
         <v>0</v>
@@ -15235,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C155">
         <f>IF('scrobbles a day'!$A155=C$1,'scrobbles a day'!$C155,0)</f>
         <v>0</v>
@@ -15293,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C156">
         <f>IF('scrobbles a day'!$A156=C$1,'scrobbles a day'!$C156,0)</f>
         <v>0</v>
@@ -15351,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C157">
         <f>IF('scrobbles a day'!$A157=C$1,'scrobbles a day'!$C157,0)</f>
         <v>0</v>
@@ -15409,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C158">
         <f>IF('scrobbles a day'!$A158=C$1,'scrobbles a day'!$C158,0)</f>
         <v>0</v>
@@ -15467,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C159">
         <f>IF('scrobbles a day'!$A159=C$1,'scrobbles a day'!$C159,0)</f>
         <v>0</v>
@@ -15525,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C160">
         <f>IF('scrobbles a day'!$A160=C$1,'scrobbles a day'!$C160,0)</f>
         <v>0</v>
@@ -15583,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C161">
         <f>IF('scrobbles a day'!$A161=C$1,'scrobbles a day'!$C161,0)</f>
         <v>0</v>
@@ -15641,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C162">
         <f>IF('scrobbles a day'!$A162=C$1,'scrobbles a day'!$C162,0)</f>
         <v>0</v>
@@ -15699,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C163">
         <f>IF('scrobbles a day'!$A163=C$1,'scrobbles a day'!$C163,0)</f>
         <v>0</v>
@@ -15757,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C164">
         <f>IF('scrobbles a day'!$A164=C$1,'scrobbles a day'!$C164,0)</f>
         <v>0</v>
@@ -15815,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C165">
         <f>IF('scrobbles a day'!$A165=C$1,'scrobbles a day'!$C165,0)</f>
         <v>0</v>
@@ -15873,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C166">
         <f>IF('scrobbles a day'!$A166=C$1,'scrobbles a day'!$C166,0)</f>
         <v>0</v>
@@ -15931,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C167">
         <f>IF('scrobbles a day'!$A167=C$1,'scrobbles a day'!$C167,0)</f>
         <v>0</v>
@@ -15989,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C168">
         <f>IF('scrobbles a day'!$A168=C$1,'scrobbles a day'!$C168,0)</f>
         <v>0</v>
@@ -16047,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C169">
         <f>IF('scrobbles a day'!$A169=C$1,'scrobbles a day'!$C169,0)</f>
         <v>0</v>
@@ -16105,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C170">
         <f>IF('scrobbles a day'!$A170=C$1,'scrobbles a day'!$C170,0)</f>
         <v>0</v>
@@ -16163,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C171">
         <f>IF('scrobbles a day'!$A171=C$1,'scrobbles a day'!$C171,0)</f>
         <v>0</v>
@@ -16221,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C172">
         <f>IF('scrobbles a day'!$A172=C$1,'scrobbles a day'!$C172,0)</f>
         <v>0</v>
@@ -16279,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C173">
         <f>IF('scrobbles a day'!$A173=C$1,'scrobbles a day'!$C173,0)</f>
         <v>0</v>
@@ -16337,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C174">
         <f>IF('scrobbles a day'!$A174=C$1,'scrobbles a day'!$C174,0)</f>
         <v>0</v>
@@ -16395,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C175">
         <f>IF('scrobbles a day'!$A175=C$1,'scrobbles a day'!$C175,0)</f>
         <v>0</v>
@@ -16453,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C176">
         <f>IF('scrobbles a day'!$A176=C$1,'scrobbles a day'!$C176,0)</f>
         <v>0</v>
@@ -16511,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C177">
         <f>IF('scrobbles a day'!$A177=C$1,'scrobbles a day'!$C177,0)</f>
         <v>0</v>
@@ -16569,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C178">
         <f>IF('scrobbles a day'!$A178=C$1,'scrobbles a day'!$C178,0)</f>
         <v>0</v>
@@ -16627,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C179">
         <f>IF('scrobbles a day'!$A179=C$1,'scrobbles a day'!$C179,0)</f>
         <v>0</v>
@@ -16685,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C180">
         <f>IF('scrobbles a day'!$A180=C$1,'scrobbles a day'!$C180,0)</f>
         <v>0</v>
@@ -16743,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C181">
         <f>IF('scrobbles a day'!$A181=C$1,'scrobbles a day'!$C181,0)</f>
         <v>0</v>
@@ -16801,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C182">
         <f>IF('scrobbles a day'!$A182=C$1,'scrobbles a day'!$C182,0)</f>
         <v>0</v>
@@ -16859,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C183">
         <f>IF('scrobbles a day'!$A183=C$1,'scrobbles a day'!$C183,0)</f>
         <v>0</v>
@@ -16917,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C184">
         <f>IF('scrobbles a day'!$A184=C$1,'scrobbles a day'!$C184,0)</f>
         <v>0</v>
@@ -16975,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C185">
         <f>IF('scrobbles a day'!$A185=C$1,'scrobbles a day'!$C185,0)</f>
         <v>0</v>
@@ -17033,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C186">
         <f>IF('scrobbles a day'!$A186=C$1,'scrobbles a day'!$C186,0)</f>
         <v>0</v>
@@ -17091,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C187">
         <f>IF('scrobbles a day'!$A187=C$1,'scrobbles a day'!$C187,0)</f>
         <v>0</v>
@@ -17149,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C188">
         <f>IF('scrobbles a day'!$A188=C$1,'scrobbles a day'!$C188,0)</f>
         <v>0</v>
@@ -17207,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C189">
         <f>IF('scrobbles a day'!$A189=C$1,'scrobbles a day'!$C189,0)</f>
         <v>0</v>
@@ -17265,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C190">
         <f>IF('scrobbles a day'!$A190=C$1,'scrobbles a day'!$C190,0)</f>
         <v>0</v>
@@ -17323,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C191">
         <f>IF('scrobbles a day'!$A191=C$1,'scrobbles a day'!$C191,0)</f>
         <v>0</v>
@@ -17381,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C192">
         <f>IF('scrobbles a day'!$A192=C$1,'scrobbles a day'!$C192,0)</f>
         <v>0</v>
@@ -17439,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C193">
         <f>IF('scrobbles a day'!$A193=C$1,'scrobbles a day'!$C193,0)</f>
         <v>0</v>
@@ -17497,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C194">
         <f>IF('scrobbles a day'!$A194=C$1,'scrobbles a day'!$C194,0)</f>
         <v>0</v>
@@ -17555,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C195">
         <f>IF('scrobbles a day'!$A195=C$1,'scrobbles a day'!$C195,0)</f>
         <v>0</v>
@@ -17613,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C196">
         <f>IF('scrobbles a day'!$A196=C$1,'scrobbles a day'!$C196,0)</f>
         <v>0</v>
@@ -17671,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C197">
         <f>IF('scrobbles a day'!$A197=C$1,'scrobbles a day'!$C197,0)</f>
         <v>0</v>
@@ -17729,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C198">
         <f>IF('scrobbles a day'!$A198=C$1,'scrobbles a day'!$C198,0)</f>
         <v>0</v>
@@ -17787,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C199">
         <f>IF('scrobbles a day'!$A199=C$1,'scrobbles a day'!$C199,0)</f>
         <v>0</v>
@@ -17845,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C200">
         <f>IF('scrobbles a day'!$A200=C$1,'scrobbles a day'!$C200,0)</f>
         <v>0</v>
@@ -17903,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C201">
         <f>IF('scrobbles a day'!$A201=C$1,'scrobbles a day'!$C201,0)</f>
         <v>0</v>
@@ -17961,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C202">
         <f>IF('scrobbles a day'!$A202=C$1,'scrobbles a day'!$C202,0)</f>
         <v>0</v>
@@ -18019,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C203">
         <f>IF('scrobbles a day'!$A203=C$1,'scrobbles a day'!$C203,0)</f>
         <v>0</v>
@@ -18077,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C204">
         <f>IF('scrobbles a day'!$A204=C$1,'scrobbles a day'!$C204,0)</f>
         <v>0</v>
@@ -18135,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C205">
         <f>IF('scrobbles a day'!$A205=C$1,'scrobbles a day'!$C205,0)</f>
         <v>0</v>
@@ -18193,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C206">
         <f>IF('scrobbles a day'!$A206=C$1,'scrobbles a day'!$C206,0)</f>
         <v>0</v>
@@ -18251,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C207">
         <f>IF('scrobbles a day'!$A207=C$1,'scrobbles a day'!$C207,0)</f>
         <v>0</v>
@@ -18309,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C208">
         <f>IF('scrobbles a day'!$A208=C$1,'scrobbles a day'!$C208,0)</f>
         <v>0</v>
@@ -18367,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C209">
         <f>IF('scrobbles a day'!$A209=C$1,'scrobbles a day'!$C209,0)</f>
         <v>0</v>
@@ -18425,7 +18463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C210">
         <f>IF('scrobbles a day'!$A210=C$1,'scrobbles a day'!$C210,0)</f>
         <v>0</v>
@@ -18483,7 +18521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C211">
         <f>IF('scrobbles a day'!$A211=C$1,'scrobbles a day'!$C211,0)</f>
         <v>0</v>
@@ -18541,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C212">
         <f>IF('scrobbles a day'!$A212=C$1,'scrobbles a day'!$C212,0)</f>
         <v>0</v>
@@ -18599,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C213">
         <f>IF('scrobbles a day'!$A213=C$1,'scrobbles a day'!$C213,0)</f>
         <v>0</v>
@@ -18657,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C214">
         <f>IF('scrobbles a day'!$A214=C$1,'scrobbles a day'!$C214,0)</f>
         <v>0</v>
@@ -18715,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C215">
         <f>IF('scrobbles a day'!$A215=C$1,'scrobbles a day'!$C215,0)</f>
         <v>0</v>
@@ -18773,7 +18811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C216">
         <f>IF('scrobbles a day'!$A216=C$1,'scrobbles a day'!$C216,0)</f>
         <v>0</v>
@@ -18831,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C217">
         <f>IF('scrobbles a day'!$A217=C$1,'scrobbles a day'!$C217,0)</f>
         <v>0</v>
@@ -18889,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C218">
         <f>IF('scrobbles a day'!$A218=C$1,'scrobbles a day'!$C218,0)</f>
         <v>0</v>
@@ -18947,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C219">
         <f>IF('scrobbles a day'!$A219=C$1,'scrobbles a day'!$C219,0)</f>
         <v>0</v>
@@ -19005,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C220">
         <f>IF('scrobbles a day'!$A220=C$1,'scrobbles a day'!$C220,0)</f>
         <v>0</v>
@@ -19063,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C221">
         <f>IF('scrobbles a day'!$A221=C$1,'scrobbles a day'!$C221,0)</f>
         <v>0</v>
@@ -19121,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C222">
         <f>IF('scrobbles a day'!$A222=C$1,'scrobbles a day'!$C222,0)</f>
         <v>0</v>
@@ -19179,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C223">
         <f>IF('scrobbles a day'!$A223=C$1,'scrobbles a day'!$C223,0)</f>
         <v>0</v>
@@ -19237,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C224">
         <f>IF('scrobbles a day'!$A224=C$1,'scrobbles a day'!$C224,0)</f>
         <v>0</v>
@@ -19295,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C225">
         <f>IF('scrobbles a day'!$A225=C$1,'scrobbles a day'!$C225,0)</f>
         <v>0</v>
@@ -19353,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C226">
         <f>IF('scrobbles a day'!$A226=C$1,'scrobbles a day'!$C226,0)</f>
         <v>0</v>
@@ -19411,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C227">
         <f>IF('scrobbles a day'!$A227=C$1,'scrobbles a day'!$C227,0)</f>
         <v>0</v>
@@ -19469,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C228">
         <f>IF('scrobbles a day'!$A228=C$1,'scrobbles a day'!$C228,0)</f>
         <v>0</v>
@@ -19527,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C229">
         <f>IF('scrobbles a day'!$A229=C$1,'scrobbles a day'!$C229,0)</f>
         <v>0</v>
@@ -19585,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C230">
         <f>IF('scrobbles a day'!$A230=C$1,'scrobbles a day'!$C230,0)</f>
         <v>0</v>
@@ -19643,7 +19681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C231">
         <f>IF('scrobbles a day'!$A231=C$1,'scrobbles a day'!$C231,0)</f>
         <v>0</v>
@@ -19701,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C232">
         <f>IF('scrobbles a day'!$A232=C$1,'scrobbles a day'!$C232,0)</f>
         <v>0</v>
@@ -19759,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C233">
         <f>IF('scrobbles a day'!$A233=C$1,'scrobbles a day'!$C233,0)</f>
         <v>0</v>
@@ -19817,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C234">
         <f>IF('scrobbles a day'!$A234=C$1,'scrobbles a day'!$C234,0)</f>
         <v>0</v>
@@ -19875,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C235">
         <f>IF('scrobbles a day'!$A235=C$1,'scrobbles a day'!$C235,0)</f>
         <v>0</v>
@@ -19933,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C236">
         <f>IF('scrobbles a day'!$A236=C$1,'scrobbles a day'!$C236,0)</f>
         <v>0</v>
@@ -19991,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C237">
         <f>IF('scrobbles a day'!$A237=C$1,'scrobbles a day'!$C237,0)</f>
         <v>0</v>
@@ -20049,7 +20087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C238">
         <f>IF('scrobbles a day'!$A238=C$1,'scrobbles a day'!$C238,0)</f>
         <v>0</v>
@@ -20107,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C239">
         <f>IF('scrobbles a day'!$A239=C$1,'scrobbles a day'!$C239,0)</f>
         <v>0</v>
@@ -20165,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C240">
         <f>IF('scrobbles a day'!$A240=C$1,'scrobbles a day'!$C240,0)</f>
         <v>0</v>
@@ -20223,7 +20261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C241">
         <f>IF('scrobbles a day'!$A241=C$1,'scrobbles a day'!$C241,0)</f>
         <v>0</v>
@@ -20281,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C242">
         <f>IF('scrobbles a day'!$A242=C$1,'scrobbles a day'!$C242,0)</f>
         <v>0</v>
@@ -20339,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C243">
         <f>IF('scrobbles a day'!$A243=C$1,'scrobbles a day'!$C243,0)</f>
         <v>0</v>
@@ -20397,7 +20435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C244">
         <f>IF('scrobbles a day'!$A244=C$1,'scrobbles a day'!$C244,0)</f>
         <v>0</v>
@@ -20455,7 +20493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C245">
         <f>IF('scrobbles a day'!$A245=C$1,'scrobbles a day'!$C245,0)</f>
         <v>0</v>
@@ -20513,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C246">
         <f>IF('scrobbles a day'!$A246=C$1,'scrobbles a day'!$C246,0)</f>
         <v>0</v>
@@ -20571,7 +20609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C247">
         <f>IF('scrobbles a day'!$A247=C$1,'scrobbles a day'!$C247,0)</f>
         <v>0</v>
@@ -20629,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C248">
         <f>IF('scrobbles a day'!$A248=C$1,'scrobbles a day'!$C248,0)</f>
         <v>0</v>
@@ -20687,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C249">
         <f>IF('scrobbles a day'!$A249=C$1,'scrobbles a day'!$C249,0)</f>
         <v>0</v>
@@ -20745,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C250">
         <f>IF('scrobbles a day'!$A250=C$1,'scrobbles a day'!$C250,0)</f>
         <v>0</v>
@@ -20803,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C251">
         <f>IF('scrobbles a day'!$A251=C$1,'scrobbles a day'!$C251,0)</f>
         <v>0</v>
@@ -20861,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C252">
         <f>IF('scrobbles a day'!$A252=C$1,'scrobbles a day'!$C252,0)</f>
         <v>0</v>
@@ -20919,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C253">
         <f>IF('scrobbles a day'!$A253=C$1,'scrobbles a day'!$C253,0)</f>
         <v>0</v>
@@ -20977,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C254">
         <f>IF('scrobbles a day'!$A254=C$1,'scrobbles a day'!$C254,0)</f>
         <v>0</v>
@@ -21035,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C255">
         <f>IF('scrobbles a day'!$A255=C$1,'scrobbles a day'!$C255,0)</f>
         <v>0</v>
@@ -21093,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C256">
         <f>IF('scrobbles a day'!$A256=C$1,'scrobbles a day'!$C256,0)</f>
         <v>0</v>
@@ -21151,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C257">
         <f>IF('scrobbles a day'!$A257=C$1,'scrobbles a day'!$C257,0)</f>
         <v>0</v>
@@ -21209,7 +21247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C258">
         <f>IF('scrobbles a day'!$A258=C$1,'scrobbles a day'!$C258,0)</f>
         <v>0</v>
@@ -21267,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C259">
         <f>IF('scrobbles a day'!$A259=C$1,'scrobbles a day'!$C259,0)</f>
         <v>0</v>
@@ -21325,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C260">
         <f>IF('scrobbles a day'!$A260=C$1,'scrobbles a day'!$C260,0)</f>
         <v>0</v>
@@ -21383,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C261">
         <f>IF('scrobbles a day'!$A261=C$1,'scrobbles a day'!$C261,0)</f>
         <v>0</v>
@@ -21441,7 +21479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C262">
         <f>IF('scrobbles a day'!$A262=C$1,'scrobbles a day'!$C262,0)</f>
         <v>0</v>
@@ -21499,7 +21537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C263">
         <f>IF('scrobbles a day'!$A263=C$1,'scrobbles a day'!$C263,0)</f>
         <v>0</v>
@@ -21557,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C264">
         <f>IF('scrobbles a day'!$A264=C$1,'scrobbles a day'!$C264,0)</f>
         <v>0</v>
@@ -21615,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C265">
         <f>IF('scrobbles a day'!$A265=C$1,'scrobbles a day'!$C265,0)</f>
         <v>0</v>
@@ -21673,7 +21711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C266">
         <f>IF('scrobbles a day'!$A266=C$1,'scrobbles a day'!$C266,0)</f>
         <v>0</v>
@@ -21731,7 +21769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C267">
         <f>IF('scrobbles a day'!$A267=C$1,'scrobbles a day'!$C267,0)</f>
         <v>0</v>
@@ -21789,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C268">
         <f>IF('scrobbles a day'!$A268=C$1,'scrobbles a day'!$C268,0)</f>
         <v>0</v>
@@ -21847,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C269">
         <f>IF('scrobbles a day'!$A269=C$1,'scrobbles a day'!$C269,0)</f>
         <v>0</v>
@@ -21905,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C270">
         <f>IF('scrobbles a day'!$A270=C$1,'scrobbles a day'!$C270,0)</f>
         <v>0</v>
@@ -21963,7 +22001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C271">
         <f>IF('scrobbles a day'!$A271=C$1,'scrobbles a day'!$C271,0)</f>
         <v>0</v>
@@ -22021,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C272">
         <f>IF('scrobbles a day'!$A272=C$1,'scrobbles a day'!$C272,0)</f>
         <v>0</v>
@@ -22079,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C273">
         <f>IF('scrobbles a day'!$A273=C$1,'scrobbles a day'!$C273,0)</f>
         <v>0</v>
@@ -22137,7 +22175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C274">
         <f>IF('scrobbles a day'!$A274=C$1,'scrobbles a day'!$C274,0)</f>
         <v>0</v>
@@ -22195,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C275">
         <f>IF('scrobbles a day'!$A275=C$1,'scrobbles a day'!$C275,0)</f>
         <v>0</v>
@@ -22253,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C276">
         <f>IF('scrobbles a day'!$A276=C$1,'scrobbles a day'!$C276,0)</f>
         <v>0</v>
@@ -22311,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C277">
         <f>IF('scrobbles a day'!$A277=C$1,'scrobbles a day'!$C277,0)</f>
         <v>0</v>
@@ -22369,7 +22407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C278">
         <f>IF('scrobbles a day'!$A278=C$1,'scrobbles a day'!$C278,0)</f>
         <v>0</v>
@@ -22427,7 +22465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C279">
         <f>IF('scrobbles a day'!$A279=C$1,'scrobbles a day'!$C279,0)</f>
         <v>0</v>
@@ -22485,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C280">
         <f>IF('scrobbles a day'!$A280=C$1,'scrobbles a day'!$C280,0)</f>
         <v>0</v>
@@ -22543,7 +22581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C281">
         <f>IF('scrobbles a day'!$A281=C$1,'scrobbles a day'!$C281,0)</f>
         <v>0</v>
@@ -22601,7 +22639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C282">
         <f>IF('scrobbles a day'!$A282=C$1,'scrobbles a day'!$C282,0)</f>
         <v>0</v>
@@ -22659,7 +22697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C283">
         <f>IF('scrobbles a day'!$A283=C$1,'scrobbles a day'!$C283,0)</f>
         <v>0</v>
@@ -22717,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C284">
         <f>IF('scrobbles a day'!$A284=C$1,'scrobbles a day'!$C284,0)</f>
         <v>0</v>
@@ -22775,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C285">
         <f>IF('scrobbles a day'!$A285=C$1,'scrobbles a day'!$C285,0)</f>
         <v>0</v>
@@ -22833,7 +22871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C286">
         <f>IF('scrobbles a day'!$A286=C$1,'scrobbles a day'!$C286,0)</f>
         <v>0</v>
@@ -22891,7 +22929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C287">
         <f>IF('scrobbles a day'!$A287=C$1,'scrobbles a day'!$C287,0)</f>
         <v>0</v>
@@ -22949,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C288">
         <f>IF('scrobbles a day'!$A288=C$1,'scrobbles a day'!$C288,0)</f>
         <v>0</v>
@@ -23007,7 +23045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C289">
         <f>IF('scrobbles a day'!$A289=C$1,'scrobbles a day'!$C289,0)</f>
         <v>0</v>
@@ -23065,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C290">
         <f>IF('scrobbles a day'!$A290=C$1,'scrobbles a day'!$C290,0)</f>
         <v>0</v>
@@ -23123,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C291">
         <f>IF('scrobbles a day'!$A291=C$1,'scrobbles a day'!$C291,0)</f>
         <v>0</v>
@@ -23181,7 +23219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C292">
         <f>IF('scrobbles a day'!$A292=C$1,'scrobbles a day'!$C292,0)</f>
         <v>0</v>
@@ -23239,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C293">
         <f>IF('scrobbles a day'!$A293=C$1,'scrobbles a day'!$C293,0)</f>
         <v>0</v>
@@ -23297,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C294">
         <f>IF('scrobbles a day'!$A294=C$1,'scrobbles a day'!$C294,0)</f>
         <v>0</v>
@@ -23355,7 +23393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C295">
         <f>IF('scrobbles a day'!$A295=C$1,'scrobbles a day'!$C295,0)</f>
         <v>0</v>
@@ -23413,7 +23451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C296">
         <f>IF('scrobbles a day'!$A296=C$1,'scrobbles a day'!$C296,0)</f>
         <v>0</v>
@@ -23471,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C297">
         <f>IF('scrobbles a day'!$A297=C$1,'scrobbles a day'!$C297,0)</f>
         <v>0</v>
@@ -23529,7 +23567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C298">
         <f>IF('scrobbles a day'!$A298=C$1,'scrobbles a day'!$C298,0)</f>
         <v>0</v>
@@ -23587,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C299">
         <f>IF('scrobbles a day'!$A299=C$1,'scrobbles a day'!$C299,0)</f>
         <v>0</v>
@@ -23645,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C300">
         <f>IF('scrobbles a day'!$A300=C$1,'scrobbles a day'!$C300,0)</f>
         <v>0</v>
@@ -23703,7 +23741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C301">
         <f>IF('scrobbles a day'!$A301=C$1,'scrobbles a day'!$C301,0)</f>
         <v>0</v>
@@ -23761,7 +23799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C302">
         <f>IF('scrobbles a day'!$A302=C$1,'scrobbles a day'!$C302,0)</f>
         <v>0</v>
@@ -23819,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C303">
         <f>IF('scrobbles a day'!$A303=C$1,'scrobbles a day'!$C303,0)</f>
         <v>0</v>
@@ -23877,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C304">
         <f>IF('scrobbles a day'!$A304=C$1,'scrobbles a day'!$C304,0)</f>
         <v>0</v>
@@ -23935,7 +23973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C305">
         <f>IF('scrobbles a day'!$A305=C$1,'scrobbles a day'!$C305,0)</f>
         <v>0</v>
@@ -23993,7 +24031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C306">
         <f>IF('scrobbles a day'!$A306=C$1,'scrobbles a day'!$C306,0)</f>
         <v>0</v>
@@ -24051,7 +24089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C307">
         <f>IF('scrobbles a day'!$A307=C$1,'scrobbles a day'!$C307,0)</f>
         <v>0</v>
@@ -24109,7 +24147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C308">
         <f>IF('scrobbles a day'!$A308=C$1,'scrobbles a day'!$C308,0)</f>
         <v>0</v>
@@ -24167,7 +24205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C309">
         <f>IF('scrobbles a day'!$A309=C$1,'scrobbles a day'!$C309,0)</f>
         <v>0</v>
@@ -24225,7 +24263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C310">
         <f>IF('scrobbles a day'!$A310=C$1,'scrobbles a day'!$C310,0)</f>
         <v>0</v>
@@ -24283,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C311">
         <f>IF('scrobbles a day'!$A311=C$1,'scrobbles a day'!$C311,0)</f>
         <v>0</v>
@@ -24341,7 +24379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C312">
         <f>IF('scrobbles a day'!$A312=C$1,'scrobbles a day'!$C312,0)</f>
         <v>0</v>
@@ -24399,7 +24437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C313">
         <f>IF('scrobbles a day'!$A313=C$1,'scrobbles a day'!$C313,0)</f>
         <v>0</v>
@@ -24457,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C314">
         <f>IF('scrobbles a day'!$A314=C$1,'scrobbles a day'!$C314,0)</f>
         <v>0</v>
@@ -24515,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C315">
         <f>IF('scrobbles a day'!$A315=C$1,'scrobbles a day'!$C315,0)</f>
         <v>0</v>
@@ -24573,7 +24611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C316">
         <f>IF('scrobbles a day'!$A316=C$1,'scrobbles a day'!$C316,0)</f>
         <v>0</v>
@@ -24631,7 +24669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C317">
         <f>IF('scrobbles a day'!$A317=C$1,'scrobbles a day'!$C317,0)</f>
         <v>0</v>
@@ -24689,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C318">
         <f>IF('scrobbles a day'!$A318=C$1,'scrobbles a day'!$C318,0)</f>
         <v>0</v>
@@ -24747,7 +24785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C319">
         <f>IF('scrobbles a day'!$A319=C$1,'scrobbles a day'!$C319,0)</f>
         <v>0</v>
@@ -24805,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C320">
         <f>IF('scrobbles a day'!$A320=C$1,'scrobbles a day'!$C320,0)</f>
         <v>0</v>
@@ -24863,7 +24901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C321">
         <f>IF('scrobbles a day'!$A321=C$1,'scrobbles a day'!$C321,0)</f>
         <v>0</v>
@@ -24921,7 +24959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C322">
         <f>IF('scrobbles a day'!$A322=C$1,'scrobbles a day'!$C322,0)</f>
         <v>0</v>
@@ -24979,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C323">
         <f>IF('scrobbles a day'!$A323=C$1,'scrobbles a day'!$C323,0)</f>
         <v>0</v>
@@ -25037,7 +25075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C324">
         <f>IF('scrobbles a day'!$A324=C$1,'scrobbles a day'!$C324,0)</f>
         <v>0</v>
@@ -25095,7 +25133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C325">
         <f>IF('scrobbles a day'!$A325=C$1,'scrobbles a day'!$C325,0)</f>
         <v>0</v>
@@ -25153,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C326">
         <f>IF('scrobbles a day'!$A326=C$1,'scrobbles a day'!$C326,0)</f>
         <v>0</v>
@@ -25211,7 +25249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C327">
         <f>IF('scrobbles a day'!$A327=C$1,'scrobbles a day'!$C327,0)</f>
         <v>0</v>
@@ -25269,7 +25307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C328">
         <f>IF('scrobbles a day'!$A328=C$1,'scrobbles a day'!$C328,0)</f>
         <v>0</v>
@@ -25327,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C329">
         <f>IF('scrobbles a day'!$A329=C$1,'scrobbles a day'!$C329,0)</f>
         <v>0</v>
@@ -25385,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C330">
         <f>IF('scrobbles a day'!$A330=C$1,'scrobbles a day'!$C330,0)</f>
         <v>0</v>
@@ -25443,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C331">
         <f>IF('scrobbles a day'!$A331=C$1,'scrobbles a day'!$C331,0)</f>
         <v>0</v>
@@ -25501,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C332">
         <f>IF('scrobbles a day'!$A332=C$1,'scrobbles a day'!$C332,0)</f>
         <v>0</v>
@@ -25559,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C333">
         <f>IF('scrobbles a day'!$A333=C$1,'scrobbles a day'!$C333,0)</f>
         <v>0</v>
@@ -25617,7 +25655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C334">
         <f>IF('scrobbles a day'!$A334=C$1,'scrobbles a day'!$C334,0)</f>
         <v>0</v>
@@ -25675,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C335">
         <f>IF('scrobbles a day'!$A335=C$1,'scrobbles a day'!$C335,0)</f>
         <v>0</v>
@@ -25733,7 +25771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C336">
         <f>IF('scrobbles a day'!$A336=C$1,'scrobbles a day'!$C336,0)</f>
         <v>0</v>
@@ -25791,7 +25829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C337">
         <f>IF('scrobbles a day'!$A337=C$1,'scrobbles a day'!$C337,0)</f>
         <v>0</v>
@@ -25849,7 +25887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C338">
         <f>IF('scrobbles a day'!$A338=C$1,'scrobbles a day'!$C338,0)</f>
         <v>0</v>
@@ -25907,7 +25945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C339">
         <f>IF('scrobbles a day'!$A339=C$1,'scrobbles a day'!$C339,0)</f>
         <v>0</v>
@@ -25965,7 +26003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C340">
         <f>IF('scrobbles a day'!$A340=C$1,'scrobbles a day'!$C340,0)</f>
         <v>0</v>
@@ -26023,7 +26061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C341">
         <f>IF('scrobbles a day'!$A341=C$1,'scrobbles a day'!$C341,0)</f>
         <v>0</v>
@@ -26081,7 +26119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C342">
         <f>IF('scrobbles a day'!$A342=C$1,'scrobbles a day'!$C342,0)</f>
         <v>0</v>
@@ -26139,7 +26177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C343">
         <f>IF('scrobbles a day'!$A343=C$1,'scrobbles a day'!$C343,0)</f>
         <v>0</v>
@@ -26197,7 +26235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C344">
         <f>IF('scrobbles a day'!$A344=C$1,'scrobbles a day'!$C344,0)</f>
         <v>0</v>
@@ -26255,7 +26293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C345">
         <f>IF('scrobbles a day'!$A345=C$1,'scrobbles a day'!$C345,0)</f>
         <v>0</v>
@@ -26313,7 +26351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C346">
         <f>IF('scrobbles a day'!$A346=C$1,'scrobbles a day'!$C346,0)</f>
         <v>0</v>
@@ -26371,7 +26409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C347">
         <f>IF('scrobbles a day'!$A347=C$1,'scrobbles a day'!$C347,0)</f>
         <v>0</v>
@@ -26429,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C348">
         <f>IF('scrobbles a day'!$A348=C$1,'scrobbles a day'!$C348,0)</f>
         <v>0</v>
@@ -26487,7 +26525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C349">
         <f>IF('scrobbles a day'!$A349=C$1,'scrobbles a day'!$C349,0)</f>
         <v>0</v>
@@ -26545,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C350">
         <f>IF('scrobbles a day'!$A350=C$1,'scrobbles a day'!$C350,0)</f>
         <v>0</v>
@@ -26603,7 +26641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C351">
         <f>IF('scrobbles a day'!$A351=C$1,'scrobbles a day'!$C351,0)</f>
         <v>0</v>
@@ -26661,7 +26699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C352">
         <f>IF('scrobbles a day'!$A352=C$1,'scrobbles a day'!$C352,0)</f>
         <v>0</v>
@@ -26719,7 +26757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C353">
         <f>IF('scrobbles a day'!$A353=C$1,'scrobbles a day'!$C353,0)</f>
         <v>0</v>
@@ -26777,7 +26815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C354">
         <f>IF('scrobbles a day'!$A354=C$1,'scrobbles a day'!$C354,0)</f>
         <v>0</v>
@@ -26835,7 +26873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C355">
         <f>IF('scrobbles a day'!$A355=C$1,'scrobbles a day'!$C355,0)</f>
         <v>0</v>
@@ -26893,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C356">
         <f>IF('scrobbles a day'!$A356=C$1,'scrobbles a day'!$C356,0)</f>
         <v>0</v>
@@ -26951,7 +26989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C357">
         <f>IF('scrobbles a day'!$A357=C$1,'scrobbles a day'!$C357,0)</f>
         <v>0</v>
@@ -27009,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C358">
         <f>IF('scrobbles a day'!$A358=C$1,'scrobbles a day'!$C358,0)</f>
         <v>0</v>
@@ -27067,7 +27105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C359">
         <f>IF('scrobbles a day'!$A359=C$1,'scrobbles a day'!$C359,0)</f>
         <v>0</v>
@@ -27125,7 +27163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C360">
         <f>IF('scrobbles a day'!$A360=C$1,'scrobbles a day'!$C360,0)</f>
         <v>0</v>
@@ -27183,7 +27221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C361">
         <f>IF('scrobbles a day'!$A361=C$1,'scrobbles a day'!$C361,0)</f>
         <v>0</v>
@@ -27241,7 +27279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C362">
         <f>IF('scrobbles a day'!$A362=C$1,'scrobbles a day'!$C362,0)</f>
         <v>0</v>
@@ -27299,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C363">
         <f>IF('scrobbles a day'!$A363=C$1,'scrobbles a day'!$C363,0)</f>
         <v>0</v>
@@ -27357,7 +27395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C364">
         <f>IF('scrobbles a day'!$A364=C$1,'scrobbles a day'!$C364,0)</f>
         <v>0</v>
@@ -27415,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C365">
         <f>IF('scrobbles a day'!$A365=C$1,'scrobbles a day'!$C365,0)</f>
         <v>0</v>
@@ -27473,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C366">
         <f>IF('scrobbles a day'!$A366=C$1,'scrobbles a day'!$C366,0)</f>
         <v>0</v>
@@ -27531,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C367">
         <f>IF('scrobbles a day'!$A367=C$1,'scrobbles a day'!$C367,0)</f>
         <v>0</v>
@@ -27589,7 +27627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C368">
         <f>IF('scrobbles a day'!$A368=C$1,'scrobbles a day'!$C368,0)</f>
         <v>0</v>
@@ -27647,7 +27685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C369">
         <f>IF('scrobbles a day'!$A369=C$1,'scrobbles a day'!$C369,0)</f>
         <v>0</v>
@@ -27705,7 +27743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C370">
         <f>IF('scrobbles a day'!$A370=C$1,'scrobbles a day'!$C370,0)</f>
         <v>0</v>
@@ -27763,7 +27801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C371">
         <f>IF('scrobbles a day'!$A371=C$1,'scrobbles a day'!$C371,0)</f>
         <v>0</v>
@@ -27821,7 +27859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C372">
         <f>IF('scrobbles a day'!$A372=C$1,'scrobbles a day'!$C372,0)</f>
         <v>0</v>
@@ -27879,7 +27917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C373">
         <f>IF('scrobbles a day'!$A373=C$1,'scrobbles a day'!$C373,0)</f>
         <v>0</v>
@@ -27937,7 +27975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C374">
         <f>IF('scrobbles a day'!$A374=C$1,'scrobbles a day'!$C374,0)</f>
         <v>0</v>
@@ -27995,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C375">
         <f>IF('scrobbles a day'!$A375=C$1,'scrobbles a day'!$C375,0)</f>
         <v>0</v>
@@ -28053,7 +28091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C376">
         <f>IF('scrobbles a day'!$A376=C$1,'scrobbles a day'!$C376,0)</f>
         <v>0</v>
@@ -28111,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C377">
         <f>IF('scrobbles a day'!$A377=C$1,'scrobbles a day'!$C377,0)</f>
         <v>0</v>
@@ -28169,7 +28207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C378">
         <f>IF('scrobbles a day'!$A378=C$1,'scrobbles a day'!$C378,0)</f>
         <v>0</v>
@@ -28227,7 +28265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C379">
         <f>IF('scrobbles a day'!$A379=C$1,'scrobbles a day'!$C379,0)</f>
         <v>0</v>
@@ -28285,7 +28323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C380">
         <f>IF('scrobbles a day'!$A380=C$1,'scrobbles a day'!$C380,0)</f>
         <v>0</v>
@@ -28343,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C381">
         <f>IF('scrobbles a day'!$A381=C$1,'scrobbles a day'!$C381,0)</f>
         <v>0</v>
@@ -28401,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C382">
         <f>IF('scrobbles a day'!$A382=C$1,'scrobbles a day'!$C382,0)</f>
         <v>0</v>
@@ -28459,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C383">
         <f>IF('scrobbles a day'!$A383=C$1,'scrobbles a day'!$C383,0)</f>
         <v>0</v>
@@ -28517,7 +28555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C384">
         <f>IF('scrobbles a day'!$A384=C$1,'scrobbles a day'!$C384,0)</f>
         <v>0</v>
@@ -28575,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C385">
         <f>IF('scrobbles a day'!$A385=C$1,'scrobbles a day'!$C385,0)</f>
         <v>0</v>
@@ -28633,7 +28671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C386">
         <f>IF('scrobbles a day'!$A386=C$1,'scrobbles a day'!$C386,0)</f>
         <v>0</v>
@@ -28691,7 +28729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C387">
         <f>IF('scrobbles a day'!$A387=C$1,'scrobbles a day'!$C387,0)</f>
         <v>0</v>
@@ -28749,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C388">
         <f>IF('scrobbles a day'!$A388=C$1,'scrobbles a day'!$C388,0)</f>
         <v>0</v>
@@ -28807,7 +28845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C389">
         <f>IF('scrobbles a day'!$A389=C$1,'scrobbles a day'!$C389,0)</f>
         <v>0</v>
@@ -28865,7 +28903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C390">
         <f>IF('scrobbles a day'!$A390=C$1,'scrobbles a day'!$C390,0)</f>
         <v>0</v>
@@ -28923,7 +28961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C391">
         <f>IF('scrobbles a day'!$A391=C$1,'scrobbles a day'!$C391,0)</f>
         <v>0</v>
@@ -28981,7 +29019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C392">
         <f>IF('scrobbles a day'!$A392=C$1,'scrobbles a day'!$C392,0)</f>
         <v>0</v>
@@ -29039,7 +29077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C393">
         <f>IF('scrobbles a day'!$A393=C$1,'scrobbles a day'!$C393,0)</f>
         <v>0</v>
@@ -29097,7 +29135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C394">
         <f>IF('scrobbles a day'!$A394=C$1,'scrobbles a day'!$C394,0)</f>
         <v>0</v>
@@ -29155,7 +29193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C395">
         <f>IF('scrobbles a day'!$A395=C$1,'scrobbles a day'!$C395,0)</f>
         <v>0</v>
@@ -29213,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C396">
         <f>IF('scrobbles a day'!$A396=C$1,'scrobbles a day'!$C396,0)</f>
         <v>0</v>
@@ -29271,7 +29309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C397">
         <f>IF('scrobbles a day'!$A397=C$1,'scrobbles a day'!$C397,0)</f>
         <v>0</v>
@@ -29329,7 +29367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C398">
         <f>IF('scrobbles a day'!$A398=C$1,'scrobbles a day'!$C398,0)</f>
         <v>0</v>
@@ -29387,7 +29425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C399">
         <f>IF('scrobbles a day'!$A399=C$1,'scrobbles a day'!$C399,0)</f>
         <v>0</v>
@@ -29445,7 +29483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C400">
         <f>IF('scrobbles a day'!$A400=C$1,'scrobbles a day'!$C400,0)</f>
         <v>0</v>
@@ -29503,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C401">
         <f>IF('scrobbles a day'!$A401=C$1,'scrobbles a day'!$C401,0)</f>
         <v>0</v>
@@ -29561,7 +29599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C402">
         <f>IF('scrobbles a day'!$A402=C$1,'scrobbles a day'!$C402,0)</f>
         <v>0</v>
@@ -29619,7 +29657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C403">
         <f>IF('scrobbles a day'!$A403=C$1,'scrobbles a day'!$C403,0)</f>
         <v>0</v>
@@ -29677,7 +29715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C404">
         <f>IF('scrobbles a day'!$A404=C$1,'scrobbles a day'!$C404,0)</f>
         <v>0</v>
@@ -29735,7 +29773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C405">
         <f>IF('scrobbles a day'!$A405=C$1,'scrobbles a day'!$C405,0)</f>
         <v>0</v>
@@ -29793,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C406">
         <f>IF('scrobbles a day'!$A406=C$1,'scrobbles a day'!$C406,0)</f>
         <v>0</v>

--- a/lastfm.xlsx
+++ b/lastfm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2BBCFA-25D2-4F78-95FC-AE2AAE67C98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B629485C-A116-4EFE-81BF-3153723B5235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
   <si>
     <t>Freq</t>
   </si>
@@ -152,25 +152,22 @@
     <t>Num</t>
   </si>
   <si>
-    <t>Normal Dist</t>
-  </si>
-  <si>
-    <t>Total P</t>
-  </si>
-  <si>
     <t>Actual Freq</t>
   </si>
   <si>
     <t>GOF</t>
   </si>
   <si>
-    <t>Adjusted Total</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
     <t>Poisson</t>
+  </si>
+  <si>
+    <t>Due to the miniscule sizes of these p-values I can confidently say there is a weekly pattern of how much music I listen to</t>
+  </si>
+  <si>
+    <t>Normal Dist.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +192,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +213,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -392,11 +402,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -406,7 +447,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -426,21 +466,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -497,7 +539,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Dist</a:t>
+              <a:t> Dist.</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -596,7 +638,7 @@
             <c:numRef>
               <c:f>'scrobbles a day'!$I$4:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
@@ -653,7 +695,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Normal Dist</c:v>
+                  <c:v>Normal Dist.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -703,28 +745,28 @@
             <c:numRef>
               <c:f>'scrobbles a day'!$J$4:$J$10</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9307970594338926</c:v>
+                  <c:v>2.7998904193536207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7781743168783493</c:v>
+                  <c:v>5.5200870558768083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8137772303843311</c:v>
+                  <c:v>7.4647679667531879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2486981147656202</c:v>
+                  <c:v>6.9249286090928335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6128761538625707</c:v>
+                  <c:v>4.4068379648774911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0132733112098147</c:v>
+                  <c:v>1.923348679995442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60240381346541838</c:v>
+                  <c:v>0.57549691490058463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +837,7 @@
             <c:numRef>
               <c:f>'scrobbles a day'!$K$4:$K$10</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.1315852122666566E-7</c:v>
@@ -913,7 +955,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8516,8 +8558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8600,17 +8642,17 @@
         <f>SUM($D$2:D3)</f>
         <v>46</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>45</v>
+      <c r="J3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -8637,22 +8679,22 @@
       <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="33">
         <f>SUM(Calc!K2:K406)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="32">
-        <f>SUM(I36:I55)*N36</f>
-        <v>2.9307970594338926</v>
-      </c>
-      <c r="K4" s="31">
-        <f>SUM(J36:J55)*O36</f>
+      <c r="J4" s="33">
+        <f>SUM(I36:I55)*I12</f>
+        <v>2.7998904193536207</v>
+      </c>
+      <c r="K4" s="34">
+        <f>SUM(J36:J55)*I12</f>
         <v>4.1315852122666566E-7</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="28"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8678,22 +8720,22 @@
       <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="33">
         <f>SUM(Calc!L2:L406)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="32">
-        <f>SUM(I56:I75)*N36</f>
-        <v>5.7781743168783493</v>
-      </c>
-      <c r="K5" s="31">
-        <f>SUM(J56:J75)*O36</f>
+      <c r="J5" s="33">
+        <f>SUM(I56:I75)*I12</f>
+        <v>5.5200870558768083</v>
+      </c>
+      <c r="K5" s="34">
+        <f>SUM(J56:J75)*I12</f>
         <v>0.38480957143762945</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="35">
         <f ca="1">TODAY()</f>
         <v>43570</v>
       </c>
@@ -8722,22 +8764,22 @@
       <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="33">
         <f>SUM(Calc!M2:M406)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="32">
-        <f>SUM(I76:I95)*N36</f>
-        <v>7.8137772303843311</v>
-      </c>
-      <c r="K6" s="31">
-        <f>SUM(J76:J95)*O36</f>
+      <c r="J6" s="33">
+        <f>SUM(I76:I95)*I12</f>
+        <v>7.4647679667531879</v>
+      </c>
+      <c r="K6" s="34">
+        <f>SUM(J76:J95)*I12</f>
         <v>21.595873094127384</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f ca="1">O5-C2</f>
         <v>31</v>
       </c>
@@ -8766,20 +8808,20 @@
       <c r="H7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="33">
         <f>SUM(Calc!N2:N406)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="32">
-        <f>SUM(I96:I115)*N36</f>
-        <v>7.2486981147656202</v>
-      </c>
-      <c r="K7" s="31">
-        <f>SUM(J96:J115)*O36</f>
+      <c r="J7" s="33">
+        <f>SUM(I96:I115)*I12</f>
+        <v>6.9249286090928335</v>
+      </c>
+      <c r="K7" s="34">
+        <f>SUM(J96:J115)*I12</f>
         <v>8.9828958172328068</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8805,22 +8847,22 @@
       <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="33">
         <f>SUM(Calc!O2:O406)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="32">
-        <f>SUM(I116:I135)*N36</f>
-        <v>4.6128761538625707</v>
-      </c>
-      <c r="K8" s="31">
-        <f>SUM(J116:J135)*O36</f>
+      <c r="J8" s="33">
+        <f>SUM(I116:I135)*I12</f>
+        <v>4.4068379648774911</v>
+      </c>
+      <c r="K8" s="34">
+        <f>SUM(J116:J135)*I12</f>
         <v>3.6419542651275963E-2</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <f>_xlfn.STDEV.P(D:D)</f>
         <v>32.055265752056457</v>
       </c>
@@ -8849,22 +8891,22 @@
       <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="33">
         <f>SUM(Calc!P2:P406)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="32">
-        <f>SUM(I136:I155)*N36</f>
-        <v>2.0132733112098147</v>
-      </c>
-      <c r="K9" s="31">
-        <f>SUM(J136:J155)*O36</f>
+      <c r="J9" s="33">
+        <f>SUM(I136:I155)*I12</f>
+        <v>1.923348679995442</v>
+      </c>
+      <c r="K9" s="34">
+        <f>SUM(J136:J155)*I12</f>
         <v>1.5613909739712304E-6</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <f>AVERAGE(D:D)</f>
         <v>55.516129032258064</v>
       </c>
@@ -8893,22 +8935,22 @@
       <c r="H10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="33">
         <f>SUM(Calc!Q2:Q406)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="32">
-        <f>SUM(I156:I175)*N36</f>
-        <v>0.60240381346541838</v>
-      </c>
-      <c r="K10" s="31">
-        <f>SUM(J156:J175)*O36</f>
+      <c r="J10" s="33">
+        <f>SUM(I156:I175)*I12</f>
+        <v>0.57549691490058463</v>
+      </c>
+      <c r="K10" s="34">
+        <f>SUM(J156:J175)*I12</f>
         <v>1.4129070509007738E-12</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <f>SUM(D:D)</f>
         <v>1721</v>
       </c>
@@ -8935,9 +8977,9 @@
         <v>404</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8963,15 +9005,15 @@
       <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="33">
         <f>SUM(I4:I10)</f>
         <v>31</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="33">
         <f>SUM(J4:J10)</f>
-        <v>30.999999999999996</v>
-      </c>
-      <c r="K12" s="8">
+        <v>29.615357610849969</v>
+      </c>
+      <c r="K12" s="34">
         <f>SUM(K4:K10)</f>
         <v>31.000000000000004</v>
       </c>
@@ -8997,17 +9039,17 @@
         <f>SUM($D$2:D13)</f>
         <v>572</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="29">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>0.16321817793111201</v>
-      </c>
-      <c r="K13" s="35">
+        <v>0.13862955666788954</v>
+      </c>
+      <c r="K13" s="30">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
@@ -9438,7 +9480,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9449,7 +9491,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9459,14 +9501,8 @@
       <c r="C34" s="1">
         <v>43571</v>
       </c>
-      <c r="N34" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9480,24 +9516,13 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35">
-        <f>SUM(I36:I175)</f>
-        <v>0.95533411647903133</v>
-      </c>
-      <c r="O35">
-        <f>SUM(J36:J175)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9515,22 +9540,11 @@
         <v>2.777739070728558E-3</v>
       </c>
       <c r="J36">
-        <f>_xlfn.POISSON.DIST(H36,$O$9,FALSE)</f>
+        <f t="shared" ref="J36:J67" si="0">_xlfn.POISSON.DIST(H36,$O$9,FALSE)</f>
         <v>7.7562447460909767E-25</v>
       </c>
-      <c r="M36" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36">
-        <f>I12/N35</f>
-        <v>32.449380238039915</v>
-      </c>
-      <c r="O36">
-        <f>I12</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9548,11 +9562,11 @@
         <v>2.9305171325019921E-3</v>
       </c>
       <c r="J37">
-        <f>_xlfn.POISSON.DIST(H37,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4.3059668412976032E-23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9570,11 +9584,11 @@
         <v>3.0886907493779259E-3</v>
       </c>
       <c r="J38">
-        <f>_xlfn.POISSON.DIST(H38,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.1952530538505083E-21</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9592,11 +9606,11 @@
         <v>3.2522351212576472E-3</v>
       </c>
       <c r="J39">
-        <f>_xlfn.POISSON.DIST(H39,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.2118607587921819E-20</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9614,11 +9628,11 @@
         <v>3.4211080358095389E-3</v>
       </c>
       <c r="J40">
-        <f>_xlfn.POISSON.DIST(H40,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.0698486821623783E-19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9636,11 +9650,11 @@
         <v>3.5952491153207491E-3</v>
       </c>
       <c r="J41">
-        <f>_xlfn.POISSON.DIST(H41,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.4085223109686981E-18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9658,11 +9672,11 @@
         <v>3.7745791146808747E-3</v>
       </c>
       <c r="J42">
-        <f>_xlfn.POISSON.DIST(H42,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.1537994070844571E-17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9677,11 +9691,11 @@
         <v>3.9589992773516229E-3</v>
       </c>
       <c r="J43">
-        <f>_xlfn.POISSON.DIST(H43,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.5012390689365611E-16</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9696,11 +9710,11 @@
         <v>4.1483907561240211E-3</v>
       </c>
       <c r="J44">
-        <f>_xlfn.POISSON.DIST(H44,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.7357388861450922E-15</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9715,11 +9729,11 @@
         <v>4.3426141053554074E-3</v>
       </c>
       <c r="J45">
-        <f>_xlfn.POISSON.DIST(H45,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.0706833774393255E-14</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9734,11 +9748,11 @@
         <v>4.5415088512104282E-3</v>
       </c>
       <c r="J46">
-        <f>_xlfn.POISSON.DIST(H46,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5.9440196534615352E-14</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9753,11 +9767,11 @@
         <v>4.7448931462019924E-3</v>
       </c>
       <c r="J47">
-        <f>_xlfn.POISSON.DIST(H47,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.9998996550168102E-13</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9772,7 +9786,7 @@
         <v>4.9525635140389461E-3</v>
       </c>
       <c r="J48">
-        <f>_xlfn.POISSON.DIST(H48,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.3878568027644878E-12</v>
       </c>
     </row>
@@ -9791,7 +9805,7 @@
         <v>5.1642946904366278E-3</v>
       </c>
       <c r="J49">
-        <f>_xlfn.POISSON.DIST(H49,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>5.9268028723516005E-12</v>
       </c>
     </row>
@@ -9810,7 +9824,7 @@
         <v>5.3798395651349059E-3</v>
       </c>
       <c r="J50">
-        <f>_xlfn.POISSON.DIST(H50,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.3502368072159227E-11</v>
       </c>
     </row>
@@ -9829,7 +9843,7 @@
         <v>5.5989292298966259E-3</v>
       </c>
       <c r="J51">
-        <f>_xlfn.POISSON.DIST(H51,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8.6984033230507256E-11</v>
       </c>
     </row>
@@ -9848,7 +9862,7 @@
         <v>5.8212731367291203E-3</v>
       </c>
       <c r="J52">
-        <f>_xlfn.POISSON.DIST(H52,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.0181355078569193E-10</v>
       </c>
     </row>
@@ -9867,7 +9881,7 @@
         <v>6.0465593699849654E-3</v>
       </c>
       <c r="J53">
-        <f>_xlfn.POISSON.DIST(H53,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9.8561882524132063E-10</v>
       </c>
     </row>
@@ -9886,7 +9900,7 @@
         <v>6.2744550353580012E-3</v>
       </c>
       <c r="J54">
-        <f>_xlfn.POISSON.DIST(H54,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.0398745488177591E-9</v>
       </c>
     </row>
@@ -9905,7 +9919,7 @@
         <v>6.504606768100705E-3</v>
       </c>
       <c r="J55">
-        <f>_xlfn.POISSON.DIST(H55,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8.8822140891602317E-9</v>
       </c>
     </row>
@@ -9924,7 +9938,7 @@
         <v>6.7366413620531355E-3</v>
       </c>
       <c r="J56">
-        <f>_xlfn.POISSON.DIST(H56,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.4655307173297935E-8</v>
       </c>
     </row>
@@ -9943,7 +9957,7 @@
         <v>6.97016652029675E-3</v>
       </c>
       <c r="J57">
-        <f>_xlfn.POISSON.DIST(H57,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6.5179391160131876E-8</v>
       </c>
     </row>
@@ -9962,7 +9976,7 @@
         <v>7.2047717274338185E-3</v>
       </c>
       <c r="J58">
-        <f>_xlfn.POISSON.DIST(H58,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.6447761317681344E-7</v>
       </c>
     </row>
@@ -9981,7 +9995,7 @@
         <v>7.4400292426507154E-3</v>
       </c>
       <c r="J59">
-        <f>_xlfn.POISSON.DIST(H59,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.9700697374094796E-7</v>
       </c>
     </row>
@@ -10000,7 +10014,7 @@
         <v>7.6754952118576504E-3</v>
       </c>
       <c r="J60">
-        <f>_xlfn.POISSON.DIST(H60,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9.1834543253786657E-7</v>
       </c>
     </row>
@@ -10019,7 +10033,7 @@
         <v>7.910710896315119E-3</v>
       </c>
       <c r="J61">
-        <f>_xlfn.POISSON.DIST(H61,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.0393193411582836E-6</v>
       </c>
     </row>
@@ -10038,7 +10052,7 @@
         <v>8.1452040142658607E-3</v>
       </c>
       <c r="J62">
-        <f>_xlfn.POISSON.DIST(H62,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4.3544275262201145E-6</v>
       </c>
     </row>
@@ -10057,7 +10071,7 @@
         <v>8.3784901911981222E-3</v>
       </c>
       <c r="J63">
-        <f>_xlfn.POISSON.DIST(H63,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8.9533689039722812E-6</v>
       </c>
     </row>
@@ -10076,7 +10090,7 @@
         <v>8.6100745134792319E-3</v>
       </c>
       <c r="J64">
-        <f>_xlfn.POISSON.DIST(H64,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.7752013690940382E-5</v>
       </c>
     </row>
@@ -10089,7 +10103,7 @@
         <v>8.8394531792261345E-3</v>
       </c>
       <c r="J65">
-        <f>_xlfn.POISSON.DIST(H65,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3.3983554574091852E-5</v>
       </c>
     </row>
@@ -10102,7 +10116,7 @@
         <v>9.0661152394296875E-3</v>
       </c>
       <c r="J66">
-        <f>_xlfn.POISSON.DIST(H66,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6.2887846690335244E-5</v>
       </c>
     </row>
@@ -10115,7 +10129,7 @@
         <v>9.2895444215304341E-3</v>
       </c>
       <c r="J67">
-        <f>_xlfn.POISSON.DIST(H67,$O$9,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.1262225198133981E-4</v>
       </c>
     </row>
@@ -10128,7 +10142,7 @@
         <v>9.5092210268633813E-3</v>
       </c>
       <c r="J68">
-        <f>_xlfn.POISSON.DIST(H68,$O$9,FALSE)</f>
+        <f t="shared" ref="J68:J99" si="1">_xlfn.POISSON.DIST(H68,$O$9,FALSE)</f>
         <v>1.9538598352811004E-4</v>
       </c>
     </row>
@@ -10141,7 +10155,7 @@
         <v>9.724623892655871E-3</v>
       </c>
       <c r="J69">
-        <f>_xlfn.POISSON.DIST(H69,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.2869919614064345E-4</v>
       </c>
     </row>
@@ -10154,7 +10168,7 @@
         <v>9.9352324085838686E-3</v>
       </c>
       <c r="J70">
-        <f>_xlfn.POISSON.DIST(H70,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.367090289924532E-4</v>
       </c>
     </row>
@@ -10167,7 +10181,7 @@
         <v>1.0140528577275099E-2</v>
       </c>
       <c r="J71">
-        <f>_xlfn.POISSON.DIST(H71,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>8.5131450589494468E-4</v>
       </c>
     </row>
@@ -10180,7 +10194,7 @@
         <v>1.0339999107599473E-2</v>
       </c>
       <c r="J72">
-        <f>_xlfn.POISSON.DIST(H72,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.3128246098971276E-3</v>
       </c>
     </row>
@@ -10193,7 +10207,7 @@
         <v>1.0533137529114627E-2</v>
       </c>
       <c r="J73">
-        <f>_xlfn.POISSON.DIST(H73,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.9698092010749491E-3</v>
       </c>
     </row>
@@ -10206,7 +10220,7 @@
         <v>1.0719446315642886E-2</v>
       </c>
       <c r="J74">
-        <f>_xlfn.POISSON.DIST(H74,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.8777942572580473E-3</v>
       </c>
     </row>
@@ -10219,7 +10233,7 @@
         <v>1.0898439005650974E-2</v>
       </c>
       <c r="J75">
-        <f>_xlfn.POISSON.DIST(H75,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.0965127516468924E-3</v>
       </c>
     </row>
@@ -10232,7 +10246,7 @@
         <v>1.1069642306889385E-2</v>
       </c>
       <c r="J76">
-        <f>_xlfn.POISSON.DIST(H76,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.6855632625679936E-3</v>
       </c>
     </row>
@@ -10245,7 +10259,7 @@
         <v>1.1232598172628462E-2</v>
       </c>
       <c r="J77">
-        <f>_xlfn.POISSON.DIST(H77,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>7.6985478952631839E-3</v>
       </c>
     </row>
@@ -10258,7 +10272,7 @@
         <v>1.1386865836805692E-2</v>
       </c>
       <c r="J78">
-        <f>_xlfn.POISSON.DIST(H78,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.0176037578915467E-2</v>
       </c>
     </row>
@@ -10271,7 +10285,7 @@
         <v>1.153202379547493E-2</v>
       </c>
       <c r="J79">
-        <f>_xlfn.POISSON.DIST(H79,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.3138005006236691E-2</v>
       </c>
     </row>
@@ -10284,7 +10298,7 @@
         <v>1.1667671722124809E-2</v>
       </c>
       <c r="J80">
-        <f>_xlfn.POISSON.DIST(H80,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.6576617753470215E-2</v>
       </c>
     </row>
@@ -10297,7 +10311,7 @@
         <v>1.179343230470992E-2</v>
       </c>
       <c r="J81">
-        <f>_xlfn.POISSON.DIST(H81,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.0450436669334902E-2</v>
       </c>
     </row>
@@ -10310,7 +10324,7 @@
         <v>1.1908952992613638E-2</v>
       </c>
       <c r="J82">
-        <f>_xlfn.POISSON.DIST(H82,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.4681066976104761E-2</v>
       </c>
     </row>
@@ -10323,7 +10337,7 @@
         <v>1.2013907642233802E-2</v>
       </c>
       <c r="J83">
-        <f>_xlfn.POISSON.DIST(H83,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.9153134019132651E-2</v>
       </c>
     </row>
@@ -10336,7 +10350,7 @@
         <v>1.2107998050448694E-2</v>
       </c>
       <c r="J84">
-        <f>_xlfn.POISSON.DIST(H84,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.3718107289601736E-2</v>
       </c>
     </row>
@@ -10349,7 +10363,7 @@
         <v>1.2190955365877143E-2</v>
       </c>
       <c r="J85">
-        <f>_xlfn.POISSON.DIST(H85,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.8202016224756108E-2</v>
       </c>
     </row>
@@ -10362,7 +10376,7 @@
         <v>1.2262541368588101E-2</v>
       </c>
       <c r="J86">
-        <f>_xlfn.POISSON.DIST(H86,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.2416561240519533E-2</v>
       </c>
     </row>
@@ -10375,7 +10389,7 @@
         <v>1.232254960973618E-2</v>
       </c>
       <c r="J87">
-        <f>_xlfn.POISSON.DIST(H87,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.6172613469281504E-2</v>
       </c>
     </row>
@@ -10388,7 +10402,7 @@
         <v>1.2370806403493622E-2</v>
       </c>
       <c r="J88">
-        <f>_xlfn.POISSON.DIST(H88,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.9294707059946326E-2</v>
       </c>
     </row>
@@ -10401,7 +10415,7 @@
         <v>1.240717166460885E-2</v>
       </c>
       <c r="J89">
-        <f>_xlfn.POISSON.DIST(H89,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.1634930523534781E-2</v>
       </c>
     </row>
@@ -10414,7 +10428,7 @@
         <v>1.2431539585939106E-2</v>
       </c>
       <c r="J90">
-        <f>_xlfn.POISSON.DIST(H90,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.3084656768819197E-2</v>
       </c>
     </row>
@@ -10427,7 +10441,7 @@
         <v>1.2443839151370959E-2</v>
       </c>
       <c r="J91">
-        <f>_xlfn.POISSON.DIST(H91,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.3582811905652707E-2</v>
       </c>
     </row>
@@ -10440,7 +10454,7 @@
         <v>1.244403448064877E-2</v>
       </c>
       <c r="J92">
-        <f>_xlfn.POISSON.DIST(H92,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.3119826779739802E-2</v>
       </c>
     </row>
@@ -10453,7 +10467,7 @@
         <v>1.2432125003767775E-2</v>
       </c>
       <c r="J93">
-        <f>_xlfn.POISSON.DIST(H93,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.1736967678512852E-2</v>
       </c>
     </row>
@@ -10466,7 +10480,7 @@
         <v>1.2408145463745458E-2</v>
       </c>
       <c r="J94">
-        <f>_xlfn.POISSON.DIST(H94,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.9521313334104873E-2</v>
       </c>
     </row>
@@ -10479,7 +10493,7 @@
         <v>1.2372165747752416E-2</v>
       </c>
       <c r="J95">
-        <f>_xlfn.POISSON.DIST(H95,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.6597146117000825E-2</v>
       </c>
     </row>
@@ -10492,7 +10506,7 @@
         <v>1.2324290547751388E-2</v>
       </c>
       <c r="J96">
-        <f>_xlfn.POISSON.DIST(H96,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.3114886272773351E-2</v>
       </c>
     </row>
@@ -10505,7 +10519,7 @@
         <v>1.2264658852950795E-2</v>
       </c>
       <c r="J97">
-        <f>_xlfn.POISSON.DIST(H97,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.9238878516892117E-2</v>
       </c>
     </row>
@@ -10518,7 +10532,7 @@
         <v>1.2193443277516428E-2</v>
       </c>
       <c r="J98">
-        <f>_xlfn.POISSON.DIST(H98,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.51353329487884E-2</v>
       </c>
     </row>
@@ -10531,7 +10545,7 @@
         <v>1.2110849228092404E-2</v>
       </c>
       <c r="J99">
-        <f>_xlfn.POISSON.DIST(H99,$O$9,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.0961550437718782E-2</v>
       </c>
     </row>
@@ -10544,7 +10558,7 @@
         <v>1.2017113916750198E-2</v>
       </c>
       <c r="J100">
-        <f>_xlfn.POISSON.DIST(H100,$O$9,FALSE)</f>
+        <f t="shared" ref="J100:J131" si="2">_xlfn.POISSON.DIST(H100,$O$9,FALSE)</f>
         <v>2.6857272330299432E-2</v>
       </c>
     </row>
@@ -10557,7 +10571,7 @@
         <v>1.1912505226003638E-2</v>
       </c>
       <c r="J101">
-        <f>_xlfn.POISSON.DIST(H101,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.2938643017590708E-2</v>
       </c>
     </row>
@@ -10570,7 +10584,7 @@
         <v>1.179732043348942E-2</v>
       </c>
       <c r="J102">
-        <f>_xlfn.POISSON.DIST(H102,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.9294919175598075E-2</v>
       </c>
     </row>
@@ -10583,7 +10597,7 @@
         <v>1.1671884804808909E-2</v>
       </c>
       <c r="J103">
-        <f>_xlfn.POISSON.DIST(H103,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.5987749591335695E-2</v>
       </c>
     </row>
@@ -10596,7 +10610,7 @@
         <v>1.153655006385064E-2</v>
       </c>
       <c r="J104">
-        <f>_xlfn.POISSON.DIST(H104,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.3052617194823889E-2</v>
       </c>
     </row>
@@ -10609,7 +10623,7 @@
         <v>1.1391692750656988E-2</v>
       </c>
       <c r="J105">
-        <f>_xlfn.POISSON.DIST(H105,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.0501895368065402E-2</v>
       </c>
     </row>
@@ -10622,7 +10636,7 @@
         <v>1.1237712477557872E-2</v>
       </c>
       <c r="J106">
-        <f>_xlfn.POISSON.DIST(H106,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8.3289225476684704E-3</v>
       </c>
     </row>
@@ -10635,7 +10649,7 @@
         <v>1.1075030094863395E-2</v>
       </c>
       <c r="J107">
-        <f>_xlfn.POISSON.DIST(H107,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.5125287162823469E-3</v>
       </c>
     </row>
@@ -10648,7 +10662,7 @@
         <v>1.0904085777882839E-2</v>
       </c>
       <c r="J108">
-        <f>_xlfn.POISSON.DIST(H108,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.0215331186030006E-3</v>
       </c>
     </row>
@@ -10661,7 +10675,7 @@
         <v>1.0725337047415849E-2</v>
       </c>
       <c r="J109">
-        <f>_xlfn.POISSON.DIST(H109,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.8188504185222081E-3</v>
       </c>
     </row>
@@ -10674,7 +10688,7 @@
         <v>1.0539256736141213E-2</v>
       </c>
       <c r="J110">
-        <f>_xlfn.POISSON.DIST(H110,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.8649701701293482E-3</v>
       </c>
     </row>
@@ -10687,7 +10701,7 @@
         <v>1.0346330913508355E-2</v>
       </c>
       <c r="J111">
-        <f>_xlfn.POISSON.DIST(H111,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.1206940485129491E-3</v>
       </c>
     </row>
@@ -10700,7 +10714,7 @@
         <v>1.0147056781816171E-2</v>
       </c>
       <c r="J112">
-        <f>_xlfn.POISSON.DIST(H112,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.5491147951998282E-3</v>
       </c>
     </row>
@@ -10713,7 +10727,7 @@
         <v>9.9419405561444098E-3</v>
       </c>
       <c r="J113">
-        <f>_xlfn.POISSON.DIST(H113,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.1168942448843344E-3</v>
       </c>
     </row>
@@ -10726,7 +10740,7 @@
         <v>9.7314953406859896E-3</v>
       </c>
       <c r="J114">
-        <f>_xlfn.POISSON.DIST(H114,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7.9494416685108764E-4</v>
       </c>
     </row>
@@ -10739,7 +10753,7 @@
         <v>9.5162390138173632E-3</v>
       </c>
       <c r="J115">
-        <f>_xlfn.POISSON.DIST(H115,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.5863573342209956E-4</v>
       </c>
     </row>
@@ -10752,7 +10766,7 @@
         <v>9.296692133941787E-3</v>
       </c>
       <c r="J116">
-        <f>_xlfn.POISSON.DIST(H116,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.8766616823364197E-4</v>
       </c>
     </row>
@@ -10765,7 +10779,7 @@
         <v>9.0733758777515883E-3</v>
       </c>
       <c r="J117">
-        <f>_xlfn.POISSON.DIST(H117,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.657003088530864E-4</v>
       </c>
     </row>
@@ -10778,7 +10792,7 @@
         <v>8.8468100220854828E-3</v>
       </c>
       <c r="J118">
-        <f>_xlfn.POISSON.DIST(H118,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.7988600768535141E-4</v>
       </c>
     </row>
@@ -10791,7 +10805,7 @@
         <v>8.6175109800112511E-3</v>
       </c>
       <c r="J119">
-        <f>_xlfn.POISSON.DIST(H119,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.2032017847900789E-4</v>
       </c>
     </row>
@@ -10804,7 +10818,7 @@
         <v>8.3859899011494137E-3</v>
       </c>
       <c r="J120">
-        <f>_xlfn.POISSON.DIST(H120,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7.9520363733630371E-5</v>
       </c>
     </row>
@@ -10817,7 +10831,7 @@
         <v>8.1527508455765379E-3</v>
       </c>
       <c r="J121">
-        <f>_xlfn.POISSON.DIST(H121,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.1937209102686461E-5</v>
       </c>
     </row>
@@ -10830,7 +10844,7 @@
         <v>7.9182890399151357E-3</v>
       </c>
       <c r="J122">
-        <f>_xlfn.POISSON.DIST(H122,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.3527358164187029E-5</v>
       </c>
     </row>
@@ -10843,7 +10857,7 @@
         <v>7.6830892234382355E-3</v>
       </c>
       <c r="J123">
-        <f>_xlfn.POISSON.DIST(H123,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.1394357953491228E-5</v>
       </c>
     </row>
@@ -10856,7 +10870,7 @@
         <v>7.4476240911987533E-3</v>
       </c>
       <c r="J124">
-        <f>_xlfn.POISSON.DIST(H124,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.3496953826231142E-5</v>
       </c>
     </row>
@@ -10869,7 +10883,7 @@
         <v>7.2123528403448761E-3</v>
       </c>
       <c r="J125">
-        <f>_xlfn.POISSON.DIST(H125,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8.4190857321289649E-6</v>
       </c>
     </row>
@@ -10882,7 +10896,7 @@
         <v>6.9777198249107693E-3</v>
       </c>
       <c r="J126">
-        <f>_xlfn.POISSON.DIST(H126,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.1932783315389986E-6</v>
       </c>
     </row>
@@ -10895,7 +10909,7 @@
         <v>6.7441533234856802E-3</v>
       </c>
       <c r="J127">
-        <f>_xlfn.POISSON.DIST(H127,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.1682495599357172E-6</v>
       </c>
     </row>
@@ -10908,7 +10922,7 @@
         <v>6.5120644232713673E-3</v>
       </c>
       <c r="J128">
-        <f>_xlfn.POISSON.DIST(H128,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.911836427997694E-6</v>
       </c>
     </row>
@@ -10921,7 +10935,7 @@
         <v>6.2818460231462781E-3</v>
       </c>
       <c r="J129">
-        <f>_xlfn.POISSON.DIST(H129,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.1412662131751816E-6</v>
       </c>
     </row>
@@ -10934,7 +10948,7 @@
         <v>6.0538719574721421E-3</v>
       </c>
       <c r="J130">
-        <f>_xlfn.POISSON.DIST(H130,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.7402853564668815E-7</v>
       </c>
     </row>
@@ -10947,7 +10961,7 @@
         <v>5.8284962415123169E-3</v>
       </c>
       <c r="J131">
-        <f>_xlfn.POISSON.DIST(H131,$O$9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.9388900164616381E-7</v>
       </c>
     </row>
@@ -10960,7 +10974,7 @@
         <v>5.6060524384878773E-3</v>
       </c>
       <c r="J132">
-        <f>_xlfn.POISSON.DIST(H132,$O$9,FALSE)</f>
+        <f t="shared" ref="J132:J163" si="3">_xlfn.POISSON.DIST(H132,$O$9,FALSE)</f>
         <v>2.2778325666433135E-7</v>
       </c>
     </row>
@@ -10973,7 +10987,7 @@
         <v>5.3868531474838433E-3</v>
       </c>
       <c r="J133">
-        <f>_xlfn.POISSON.DIST(H133,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.3036747080788775E-7</v>
       </c>
     </row>
@@ -10986,7 +11000,7 @@
         <v>5.1711896106397745E-3</v>
       </c>
       <c r="J134">
-        <f>_xlfn.POISSON.DIST(H134,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7.3852013581426006E-8</v>
       </c>
     </row>
@@ -10999,7 +11013,7 @@
         <v>4.9593314373217135E-3</v>
       </c>
       <c r="J135">
-        <f>_xlfn.POISSON.DIST(H135,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.1413918336147053E-8</v>
       </c>
     </row>
@@ -11012,7 +11026,7 @@
         <v>4.7515264422809079E-3</v>
       </c>
       <c r="J136">
-        <f>_xlfn.POISSON.DIST(H136,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.2991404340809226E-8</v>
       </c>
     </row>
@@ -11025,7 +11039,7 @@
         <v>4.5480005941630017E-3</v>
       </c>
       <c r="J137">
-        <f>_xlfn.POISSON.DIST(H137,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.2637562079378197E-8</v>
       </c>
     </row>
@@ -11038,7 +11052,7 @@
         <v>4.3489580701430814E-3</v>
       </c>
       <c r="J138">
-        <f>_xlfn.POISSON.DIST(H138,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6.878318892665868E-9</v>
       </c>
     </row>
@@ -11051,7 +11065,7 @@
         <v>4.1545814119298445E-3</v>
       </c>
       <c r="J139">
-        <f>_xlfn.POISSON.DIST(H139,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.7073557200996019E-9</v>
       </c>
     </row>
@@ -11064,7 +11078,7 @@
         <v>3.9650317779085942E-3</v>
       </c>
       <c r="J140">
-        <f>_xlfn.POISSON.DIST(H140,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.9790196012070235E-9</v>
       </c>
     </row>
@@ -11077,7 +11091,7 @@
         <v>3.7804492857791837E-3</v>
       </c>
       <c r="J141">
-        <f>_xlfn.POISSON.DIST(H141,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.0463572146473905E-9</v>
       </c>
     </row>
@@ -11090,7 +11104,7 @@
         <v>3.6009534396925671E-3</v>
       </c>
       <c r="J142">
-        <f>_xlfn.POISSON.DIST(H142,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5.4801605794527163E-10</v>
       </c>
     </row>
@@ -11103,7 +11117,7 @@
         <v>3.426643635598301E-3</v>
       </c>
       <c r="J143">
-        <f>_xlfn.POISSON.DIST(H143,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.843339269592464E-10</v>
       </c>
     </row>
@@ -11116,7 +11130,7 @@
         <v>3.2575997382852631E-3</v>
       </c>
       <c r="J144">
-        <f>_xlfn.POISSON.DIST(H144,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.4615850904924144E-10</v>
       </c>
     </row>
@@ -11129,7 +11143,7 @@
         <v>3.0938827234277878E-3</v>
       </c>
       <c r="J145">
-        <f>_xlfn.POISSON.DIST(H145,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7.4441785757247914E-11</v>
       </c>
     </row>
@@ -11142,7 +11156,7 @@
         <v>2.9355353778383179E-3</v>
       </c>
       <c r="J146">
-        <f>_xlfn.POISSON.DIST(H146,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.7570179849919542E-11</v>
       </c>
     </row>
@@ -11155,7 +11169,7 @@
         <v>2.7825830510734158E-3</v>
       </c>
       <c r="J147">
-        <f>_xlfn.POISSON.DIST(H147,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.8790549119939464E-11</v>
       </c>
     </row>
@@ -11168,7 +11182,7 @@
         <v>2.6350344515404136E-3</v>
       </c>
       <c r="J148">
-        <f>_xlfn.POISSON.DIST(H148,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>9.3140941922280367E-12</v>
       </c>
     </row>
@@ -11181,7 +11195,7 @@
         <v>2.4928824803043038E-3</v>
       </c>
       <c r="J149">
-        <f>_xlfn.POISSON.DIST(H149,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.5759509291533876E-12</v>
       </c>
     </row>
@@ -11194,7 +11208,7 @@
         <v>2.3561050958956255E-3</v>
       </c>
       <c r="J150">
-        <f>_xlfn.POISSON.DIST(H150,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.2284130020014474E-12</v>
       </c>
     </row>
@@ -11207,7 +11221,7 @@
         <v>2.2246662035667014E-3</v>
       </c>
       <c r="J151">
-        <f>_xlfn.POISSON.DIST(H151,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.0757640326632394E-12</v>
       </c>
     </row>
@@ -11220,7 +11234,7 @@
         <v>2.0985165626320255E-3</v>
       </c>
       <c r="J152">
-        <f>_xlfn.POISSON.DIST(H152,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5.1484702453099331E-13</v>
       </c>
     </row>
@@ -11233,7 +11247,7 @@
         <v>1.9775947057549675E-3</v>
       </c>
       <c r="J153">
-        <f>_xlfn.POISSON.DIST(H153,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.4429328073279158E-13</v>
       </c>
     </row>
@@ -11246,7 +11260,7 @@
         <v>1.8618278643033738E-3</v>
       </c>
       <c r="J154">
-        <f>_xlfn.POISSON.DIST(H154,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.1493404487182539E-13</v>
       </c>
     </row>
@@ -11259,7 +11273,7 @@
         <v>1.7511328941868993E-3</v>
       </c>
       <c r="J155">
-        <f>_xlfn.POISSON.DIST(H155,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5.3619271137003627E-14</v>
       </c>
     </row>
@@ -11272,7 +11286,7 @@
         <v>1.6454171969049435E-3</v>
       </c>
       <c r="J156">
-        <f>_xlfn.POISSON.DIST(H156,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.4806119792146475E-14</v>
       </c>
     </row>
@@ -11285,7 +11299,7 @@
         <v>1.5445796308716697E-3</v>
       </c>
       <c r="J157">
-        <f>_xlfn.POISSON.DIST(H157,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.1381320224549252E-14</v>
       </c>
     </row>
@@ -11298,7 +11312,7 @@
         <v>1.4485114084396963E-3</v>
       </c>
       <c r="J158">
-        <f>_xlfn.POISSON.DIST(H158,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5.1790724765862734E-15</v>
       </c>
     </row>
@@ -11311,7 +11325,7 @@
         <v>1.3570969744125256E-3</v>
       </c>
       <c r="J159">
-        <f>_xlfn.POISSON.DIST(H159,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.3375776900616085E-15</v>
       </c>
     </row>
@@ -11324,7 +11338,7 @@
         <v>1.2702148622138489E-3</v>
       </c>
       <c r="J160">
-        <f>_xlfn.POISSON.DIST(H160,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.0465585860031394E-15</v>
       </c>
     </row>
@@ -11337,7 +11351,7 @@
         <v>1.1877385242655572E-3</v>
       </c>
       <c r="J161">
-        <f>_xlfn.POISSON.DIST(H161,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.6480705200294169E-16</v>
       </c>
     </row>
@@ -11350,7 +11364,7 @@
         <v>1.1095371335121758E-3</v>
       </c>
       <c r="J162">
-        <f>_xlfn.POISSON.DIST(H162,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.0479593868331903E-16</v>
       </c>
     </row>
@@ -11363,7 +11377,7 @@
         <v>1.0354763534139695E-3</v>
       </c>
       <c r="J163">
-        <f>_xlfn.POISSON.DIST(H163,$O$9,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>8.9523446907289032E-17</v>
       </c>
     </row>
@@ -11376,7 +11390,7 @@
         <v>9.6541907411112177E-4</v>
       </c>
       <c r="J164">
-        <f>_xlfn.POISSON.DIST(H164,$O$9,FALSE)</f>
+        <f t="shared" ref="J164:J175" si="4">_xlfn.POISSON.DIST(H164,$O$9,FALSE)</f>
         <v>3.8828087733730809E-17</v>
       </c>
     </row>
@@ -11389,7 +11403,7 @@
         <v>8.992261128340503E-4</v>
       </c>
       <c r="J165">
-        <f>_xlfn.POISSON.DIST(H165,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1.6709962237997303E-17</v>
       </c>
     </row>
@@ -11402,7 +11416,7 @@
         <v>8.367568769976515E-4</v>
       </c>
       <c r="J166">
-        <f>_xlfn.POISSON.DIST(H166,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>7.1359416902216336E-18</v>
       </c>
     </row>
@@ -11415,7 +11429,7 @@
         <v>7.7786998876741011E-4</v>
       </c>
       <c r="J167">
-        <f>_xlfn.POISSON.DIST(H167,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>3.0241210659619725E-18</v>
       </c>
     </row>
@@ -11428,7 +11442,7 @@
         <v>7.2242387022099035E-4</v>
       </c>
       <c r="J168">
-        <f>_xlfn.POISSON.DIST(H168,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1.2718749644478353E-18</v>
       </c>
     </row>
@@ -11441,7 +11455,7 @@
         <v>6.7027728854810223E-4</v>
       </c>
       <c r="J169">
-        <f>_xlfn.POISSON.DIST(H169,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>5.3089905743747963E-19</v>
       </c>
     </row>
@@ -11454,7 +11468,7 @@
         <v>6.2128986103266966E-4</v>
       </c>
       <c r="J170">
-        <f>_xlfn.POISSON.DIST(H170,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>2.1995119832688677E-19</v>
       </c>
     </row>
@@ -11467,7 +11481,7 @@
         <v>5.7532251984331419E-4</v>
       </c>
       <c r="J171">
-        <f>_xlfn.POISSON.DIST(H171,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>9.0450660052704943E-20</v>
       </c>
     </row>
@@ -11480,7 +11494,7 @@
         <v>5.3223793691979768E-4</v>
       </c>
       <c r="J172">
-        <f>_xlfn.POISSON.DIST(H172,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>3.6922577312786635E-20</v>
       </c>
     </row>
@@ -11493,7 +11507,7 @@
         <v>4.9190090948377765E-4</v>
       </c>
       <c r="J173">
-        <f>_xlfn.POISSON.DIST(H173,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>1.4962033330658136E-20</v>
       </c>
     </row>
@@ -11506,7 +11520,7 @@
         <v>4.5417870692128671E-4</v>
       </c>
       <c r="J174">
-        <f>_xlfn.POISSON.DIST(H174,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>6.0190882099258864E-21</v>
       </c>
     </row>
@@ -11519,7 +11533,7 @@
         <v>4.1894137998171795E-4</v>
       </c>
       <c r="J175">
-        <f>_xlfn.POISSON.DIST(H175,$O$9,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>2.404003436825834E-21</v>
       </c>
     </row>
@@ -11635,10 +11649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA36D5C-F037-4174-89E6-4D05A4E2D961}">
-  <dimension ref="C1:I31"/>
+  <dimension ref="C1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11674,487 +11688,492 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>SUM(Calc!C2:C1000)</f>
         <v>269</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f ca="1">$E$2+IF($F$2&gt;3,1,0)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" ref="F5:F11" ca="1" si="0">D5/E5</f>
         <v>67.25</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
         <v>11.733870967741936</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f ca="1">F5/$F$13</f>
         <v>1.2113596746077862</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f>SUM(Calc!D2:D1000)</f>
         <v>325</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>25.733870967741936</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
         <v>1.4635386403253923</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f>SUM(Calc!E2:E1000)</f>
         <v>225</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>56.25</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>0.73387096774193594</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>1.0132190586868099</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f>SUM(Calc!F2:F1000)</f>
         <v>156</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>-16.516129032258064</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>0.70249854735618822</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <f>SUM(Calc!G2:G1000)</f>
         <v>216</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
         <v>5</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>43.2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>-12.316129032258061</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>0.77815223707147019</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>SUM(Calc!H2:H1000)</f>
         <v>274</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>54.8</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>-0.7161290322580669</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>0.9871005229517722</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>SUM(Calc!I2:I1000)</f>
         <v>256</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>51.2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" ca="1" si="1"/>
         <v>-4.3161290322580612</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>0.92225450319581648</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>SUM(D5:D11)</f>
         <v>1721</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f ca="1">SUM(E5:E11)</f>
         <v>31</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f ca="1">D13/E13</f>
         <v>55.516129032258064</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f>_xlfn.STDEV.P(D5:D11)</f>
         <v>49.417835332798539</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
         <v>13.316898885189744</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
         <v>13.316898885189724</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="G20" s="10" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f t="shared" ref="D23:D29" si="3">D5</f>
         <v>269</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
         <v>222.06451612903226</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f t="shared" ref="H23:H29" ca="1" si="5">F5</f>
         <v>67.25</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <f ca="1">E23/7</f>
         <v>31.723502304147466</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>222.06451612903226</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>81.25</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
         <v>31.723502304147466</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>222.06451612903226</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>56.25</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <f t="shared" ca="1" si="6"/>
         <v>31.723502304147466</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>222.06451612903226</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>39</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <f t="shared" ca="1" si="6"/>
         <v>31.723502304147466</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>277.58064516129031</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>43.2</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="20">
         <f t="shared" ca="1" si="6"/>
         <v>39.654377880184327</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <f t="shared" si="3"/>
         <v>274</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>277.58064516129031</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>54.8</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <f t="shared" ca="1" si="6"/>
         <v>39.654377880184327</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>277.58064516129031</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <f t="shared" ca="1" si="5"/>
         <v>51.2</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <f t="shared" ca="1" si="6"/>
         <v>39.654377880184327</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="17"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="17"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
         <v>8.2690717324359392E-18</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="G31" s="18" t="s">
+      <c r="E31" s="19"/>
+      <c r="G31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
         <v>3.0224860410729423E-29</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
